--- a/data/kpop_data.xlsx
+++ b/data/kpop_data.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylergleeson/Documents/GitHub/kpop_analytics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05331A43-112D-B34A-8F03-9905D17ACD8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6949726F-3110-7846-A7A7-B910E83B68CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$X$1099</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -11328,10 +11331,13 @@
   <dimension ref="A1:X1099"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C1099"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">

--- a/data/kpop_data.xlsx
+++ b/data/kpop_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylergleeson/Documents/GitHub/kpop_analytics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DFD2EB-67FB-394C-AE77-DA30D3812F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB53F360-4500-A34F-9B39-9F05DB25EB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11031,7 +11031,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11342,8 +11352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X834"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A471" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -72922,7 +72932,11 @@
       <c r="A834" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:X1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="I1:I834 I1101:I1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I833">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/kpop_data.xlsx
+++ b/data/kpop_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylergleeson/Documents/GitHub/kpop_analytics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CDC23F-915C-9442-B20A-A9B3872433F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578F44EC-97A9-934F-97B2-3E271B845E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$X$833</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$X$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -11031,38 +11031,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -11363,7 +11332,7 @@
   <dimension ref="A1:X834"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11666,7 +11635,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>38</v>
@@ -11740,7 +11709,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
@@ -11814,7 +11783,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>48</v>
@@ -11885,7 +11854,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
@@ -11959,7 +11928,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>56</v>
@@ -12030,7 +11999,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
@@ -12104,7 +12073,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>65</v>
@@ -12178,7 +12147,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>72</v>
@@ -12252,7 +12221,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>77</v>
@@ -12326,7 +12295,7 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>81</v>
@@ -12400,7 +12369,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>86</v>
@@ -12474,7 +12443,7 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>89</v>
@@ -12548,7 +12517,7 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>94</v>
@@ -12622,7 +12591,7 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>99</v>
@@ -12696,7 +12665,7 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>104</v>
@@ -12770,7 +12739,7 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>108</v>
@@ -12844,7 +12813,7 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>111</v>
@@ -12918,7 +12887,7 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>118</v>
@@ -12992,7 +12961,7 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>123</v>
@@ -13066,7 +13035,7 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>126</v>
@@ -13140,7 +13109,7 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>131</v>
@@ -13214,7 +13183,7 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>135</v>
@@ -13288,7 +13257,7 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>139</v>
@@ -13362,7 +13331,7 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>144</v>
@@ -13436,7 +13405,7 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>147</v>
@@ -13510,7 +13479,7 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>150</v>
@@ -13584,7 +13553,7 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>153</v>
@@ -13658,7 +13627,7 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>160</v>
@@ -13732,7 +13701,7 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>164</v>
@@ -13806,7 +13775,7 @@
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>168</v>
@@ -13880,7 +13849,7 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>173</v>
@@ -13954,7 +13923,7 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>178</v>
@@ -14028,7 +13997,7 @@
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>183</v>
@@ -14102,7 +14071,7 @@
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>189</v>
@@ -14176,7 +14145,7 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>194</v>
@@ -14250,7 +14219,7 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>199</v>
@@ -14324,7 +14293,7 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>202</v>
@@ -14398,7 +14367,7 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>209</v>
@@ -14472,7 +14441,7 @@
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
         <v>213</v>
@@ -14546,7 +14515,7 @@
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>217</v>
@@ -14620,7 +14589,7 @@
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>222</v>
@@ -14694,7 +14663,7 @@
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
         <v>226</v>
@@ -14768,7 +14737,7 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>231</v>
@@ -14842,7 +14811,7 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>236</v>
@@ -14916,7 +14885,7 @@
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>241</v>
@@ -14990,7 +14959,7 @@
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>244</v>
@@ -15064,7 +15033,7 @@
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>249</v>
@@ -15138,7 +15107,7 @@
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
         <v>256</v>
@@ -15212,7 +15181,7 @@
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>261</v>
@@ -15286,7 +15255,7 @@
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>264</v>
@@ -15360,7 +15329,7 @@
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>269</v>
@@ -15434,7 +15403,7 @@
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>274</v>
@@ -15508,7 +15477,7 @@
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>279</v>
@@ -15582,7 +15551,7 @@
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>282</v>
@@ -15656,7 +15625,7 @@
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>285</v>
@@ -15730,7 +15699,7 @@
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>290</v>
@@ -15804,7 +15773,7 @@
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
         <v>293</v>
@@ -15878,7 +15847,7 @@
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>299</v>
@@ -15952,7 +15921,7 @@
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>302</v>
@@ -16026,7 +15995,7 @@
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>307</v>
@@ -16100,7 +16069,7 @@
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>313</v>
@@ -16174,7 +16143,7 @@
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>318</v>
@@ -16248,7 +16217,7 @@
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>321</v>
@@ -16322,7 +16291,7 @@
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
         <v>325</v>
@@ -16396,7 +16365,7 @@
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>330</v>
@@ -16470,7 +16439,7 @@
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
         <v>337</v>
@@ -16544,7 +16513,7 @@
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
         <v>342</v>
@@ -16618,7 +16587,7 @@
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
         <v>347</v>
@@ -16692,7 +16661,7 @@
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
         <v>350</v>
@@ -16766,7 +16735,7 @@
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
         <v>354</v>
@@ -16840,7 +16809,7 @@
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
         <v>357</v>
@@ -16914,7 +16883,7 @@
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
         <v>360</v>
@@ -16988,7 +16957,7 @@
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
         <v>363</v>
@@ -17062,7 +17031,7 @@
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
         <v>367</v>
@@ -17136,7 +17105,7 @@
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
         <v>370</v>
@@ -17210,7 +17179,7 @@
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
         <v>376</v>
@@ -17284,7 +17253,7 @@
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
         <v>381</v>
@@ -17358,7 +17327,7 @@
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
         <v>384</v>
@@ -17432,7 +17401,7 @@
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
         <v>388</v>
@@ -17506,7 +17475,7 @@
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
         <v>392</v>
@@ -17580,7 +17549,7 @@
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
         <v>397</v>
@@ -17654,7 +17623,7 @@
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
         <v>400</v>
@@ -17728,7 +17697,7 @@
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
         <v>405</v>
@@ -17802,7 +17771,7 @@
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
         <v>408</v>
@@ -17876,7 +17845,7 @@
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
         <v>413</v>
@@ -17950,7 +17919,7 @@
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>137</v>
+        <v>88</v>
       </c>
       <c r="B90" t="s">
         <v>419</v>
@@ -18024,7 +17993,7 @@
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="B91" t="s">
         <v>424</v>
@@ -18098,7 +18067,7 @@
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="B92" t="s">
         <v>429</v>
@@ -18172,7 +18141,7 @@
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="B93" t="s">
         <v>434</v>
@@ -18246,7 +18215,7 @@
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="B94" t="s">
         <v>439</v>
@@ -18320,7 +18289,7 @@
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
         <v>444</v>
@@ -18394,7 +18363,7 @@
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="B96" t="s">
         <v>449</v>
@@ -18468,7 +18437,7 @@
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="B97" t="s">
         <v>454</v>
@@ -18542,7 +18511,7 @@
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="B98" t="s">
         <v>459</v>
@@ -18616,7 +18585,7 @@
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="B99" t="s">
         <v>464</v>
@@ -18690,7 +18659,7 @@
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c r="B100" t="s">
         <v>471</v>
@@ -18764,7 +18733,7 @@
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="B101" t="s">
         <v>476</v>
@@ -18838,7 +18807,7 @@
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="B102" t="s">
         <v>480</v>
@@ -18912,7 +18881,7 @@
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="B103" t="s">
         <v>485</v>
@@ -18986,7 +18955,7 @@
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="B104" t="s">
         <v>488</v>
@@ -19060,7 +19029,7 @@
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="B105" t="s">
         <v>493</v>
@@ -19134,7 +19103,7 @@
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>155</v>
+        <v>104</v>
       </c>
       <c r="B106" t="s">
         <v>496</v>
@@ -19208,7 +19177,7 @@
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="B107" t="s">
         <v>501</v>
@@ -19282,7 +19251,7 @@
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="B108" t="s">
         <v>507</v>
@@ -19356,7 +19325,7 @@
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="B109" t="s">
         <v>511</v>
@@ -19430,7 +19399,7 @@
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="B110" t="s">
         <v>516</v>
@@ -19504,7 +19473,7 @@
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="B111" t="s">
         <v>521</v>
@@ -19578,7 +19547,7 @@
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="B112" t="s">
         <v>525</v>
@@ -19652,7 +19621,7 @@
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="B113" t="s">
         <v>529</v>
@@ -19726,7 +19695,7 @@
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="B114" t="s">
         <v>533</v>
@@ -19800,7 +19769,7 @@
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="B115" t="s">
         <v>536</v>
@@ -19874,7 +19843,7 @@
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>167</v>
+        <v>114</v>
       </c>
       <c r="B116" t="s">
         <v>183</v>
@@ -19948,7 +19917,7 @@
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>168</v>
+        <v>115</v>
       </c>
       <c r="B117" t="s">
         <v>77</v>
@@ -20022,7 +19991,7 @@
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="B118" t="s">
         <v>549</v>
@@ -20096,7 +20065,7 @@
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>170</v>
+        <v>117</v>
       </c>
       <c r="B119" t="s">
         <v>554</v>
@@ -20170,7 +20139,7 @@
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="B120" t="s">
         <v>559</v>
@@ -20244,7 +20213,7 @@
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="B121" t="s">
         <v>564</v>
@@ -20318,7 +20287,7 @@
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="B122" t="s">
         <v>567</v>
@@ -20392,7 +20361,7 @@
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="B123" t="s">
         <v>571</v>
@@ -20466,7 +20435,7 @@
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>175</v>
+        <v>122</v>
       </c>
       <c r="B124" t="s">
         <v>574</v>
@@ -20540,7 +20509,7 @@
     </row>
     <row r="125" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>176</v>
+        <v>123</v>
       </c>
       <c r="B125" t="s">
         <v>577</v>
@@ -20614,7 +20583,7 @@
     </row>
     <row r="126" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>178</v>
+        <v>124</v>
       </c>
       <c r="B126" t="s">
         <v>584</v>
@@ -20688,7 +20657,7 @@
     </row>
     <row r="127" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>179</v>
+        <v>125</v>
       </c>
       <c r="B127" t="s">
         <v>589</v>
@@ -20762,7 +20731,7 @@
     </row>
     <row r="128" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>180</v>
+        <v>126</v>
       </c>
       <c r="B128" t="s">
         <v>593</v>
@@ -20836,7 +20805,7 @@
     </row>
     <row r="129" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="B129" t="s">
         <v>598</v>
@@ -20910,7 +20879,7 @@
     </row>
     <row r="130" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="B130" t="s">
         <v>602</v>
@@ -20984,7 +20953,7 @@
     </row>
     <row r="131" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="B131" t="s">
         <v>606</v>
@@ -21058,7 +21027,7 @@
     </row>
     <row r="132" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="B132" t="s">
         <v>611</v>
@@ -21132,7 +21101,7 @@
     </row>
     <row r="133" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="B133" t="s">
         <v>616</v>
@@ -21206,7 +21175,7 @@
     </row>
     <row r="134" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>186</v>
+        <v>132</v>
       </c>
       <c r="B134" t="s">
         <v>621</v>
@@ -21280,7 +21249,7 @@
     </row>
     <row r="135" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="B135" t="s">
         <v>624</v>
@@ -21354,7 +21323,7 @@
     </row>
     <row r="136" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="B136" t="s">
         <v>627</v>
@@ -21428,7 +21397,7 @@
     </row>
     <row r="137" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>189</v>
+        <v>135</v>
       </c>
       <c r="B137" t="s">
         <v>633</v>
@@ -21502,7 +21471,7 @@
     </row>
     <row r="138" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="B138" t="s">
         <v>637</v>
@@ -21576,7 +21545,7 @@
     </row>
     <row r="139" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>191</v>
+        <v>137</v>
       </c>
       <c r="B139" t="s">
         <v>642</v>
@@ -21650,7 +21619,7 @@
     </row>
     <row r="140" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c r="B140" t="s">
         <v>647</v>
@@ -21724,7 +21693,7 @@
     </row>
     <row r="141" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>193</v>
+        <v>139</v>
       </c>
       <c r="B141" t="s">
         <v>650</v>
@@ -21798,7 +21767,7 @@
     </row>
     <row r="142" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="B142" t="s">
         <v>653</v>
@@ -21872,7 +21841,7 @@
     </row>
     <row r="143" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <v>195</v>
+        <v>141</v>
       </c>
       <c r="B143" t="s">
         <v>658</v>
@@ -21946,7 +21915,7 @@
     </row>
     <row r="144" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
-        <v>196</v>
+        <v>142</v>
       </c>
       <c r="B144" t="s">
         <v>663</v>
@@ -22020,7 +21989,7 @@
     </row>
     <row r="145" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="B145" t="s">
         <v>668</v>
@@ -22094,7 +22063,7 @@
     </row>
     <row r="146" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
-        <v>198</v>
+        <v>144</v>
       </c>
       <c r="B146" t="s">
         <v>673</v>
@@ -22168,7 +22137,7 @@
     </row>
     <row r="147" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
-        <v>199</v>
+        <v>145</v>
       </c>
       <c r="B147" t="s">
         <v>680</v>
@@ -22242,7 +22211,7 @@
     </row>
     <row r="148" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
-        <v>200</v>
+        <v>146</v>
       </c>
       <c r="B148" t="s">
         <v>685</v>
@@ -22316,7 +22285,7 @@
     </row>
     <row r="149" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="B149" t="s">
         <v>690</v>
@@ -22390,7 +22359,7 @@
     </row>
     <row r="150" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="B150" t="s">
         <v>695</v>
@@ -22464,7 +22433,7 @@
     </row>
     <row r="151" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
-        <v>203</v>
+        <v>149</v>
       </c>
       <c r="B151" t="s">
         <v>700</v>
@@ -22538,7 +22507,7 @@
     </row>
     <row r="152" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="B152" t="s">
         <v>704</v>
@@ -22612,7 +22581,7 @@
     </row>
     <row r="153" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="B153" t="s">
         <v>707</v>
@@ -22686,7 +22655,7 @@
     </row>
     <row r="154" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
-        <v>206</v>
+        <v>152</v>
       </c>
       <c r="B154" t="s">
         <v>711</v>
@@ -22760,7 +22729,7 @@
     </row>
     <row r="155" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
-        <v>207</v>
+        <v>153</v>
       </c>
       <c r="B155" t="s">
         <v>716</v>
@@ -22834,7 +22803,7 @@
     </row>
     <row r="156" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="B156" t="s">
         <v>721</v>
@@ -22905,7 +22874,7 @@
     </row>
     <row r="157" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
-        <v>216</v>
+        <v>155</v>
       </c>
       <c r="B157" t="s">
         <v>726</v>
@@ -22976,7 +22945,7 @@
     </row>
     <row r="158" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
-        <v>217</v>
+        <v>156</v>
       </c>
       <c r="B158" t="s">
         <v>730</v>
@@ -23047,7 +23016,7 @@
     </row>
     <row r="159" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
-        <v>218</v>
+        <v>157</v>
       </c>
       <c r="B159" t="s">
         <v>734</v>
@@ -23118,7 +23087,7 @@
     </row>
     <row r="160" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c r="B160" t="s">
         <v>738</v>
@@ -23189,7 +23158,7 @@
     </row>
     <row r="161" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
-        <v>220</v>
+        <v>159</v>
       </c>
       <c r="B161" t="s">
         <v>742</v>
@@ -23263,7 +23232,7 @@
     </row>
     <row r="162" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
-        <v>221</v>
+        <v>160</v>
       </c>
       <c r="B162" t="s">
         <v>747</v>
@@ -23337,7 +23306,7 @@
     </row>
     <row r="163" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
-        <v>222</v>
+        <v>161</v>
       </c>
       <c r="B163" t="s">
         <v>753</v>
@@ -23411,7 +23380,7 @@
     </row>
     <row r="164" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
-        <v>223</v>
+        <v>162</v>
       </c>
       <c r="B164" t="s">
         <v>758</v>
@@ -23485,7 +23454,7 @@
     </row>
     <row r="165" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
-        <v>224</v>
+        <v>163</v>
       </c>
       <c r="B165" t="s">
         <v>763</v>
@@ -23559,7 +23528,7 @@
     </row>
     <row r="166" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="B166" t="s">
         <v>768</v>
@@ -23633,7 +23602,7 @@
     </row>
     <row r="167" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
-        <v>226</v>
+        <v>165</v>
       </c>
       <c r="B167" t="s">
         <v>773</v>
@@ -23707,7 +23676,7 @@
     </row>
     <row r="168" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
-        <v>227</v>
+        <v>166</v>
       </c>
       <c r="B168" t="s">
         <v>778</v>
@@ -23781,7 +23750,7 @@
     </row>
     <row r="169" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="B169" t="s">
         <v>783</v>
@@ -23855,7 +23824,7 @@
     </row>
     <row r="170" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
-        <v>229</v>
+        <v>168</v>
       </c>
       <c r="B170" t="s">
         <v>788</v>
@@ -23929,7 +23898,7 @@
     </row>
     <row r="171" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
-        <v>238</v>
+        <v>169</v>
       </c>
       <c r="B171" t="s">
         <v>794</v>
@@ -24003,7 +23972,7 @@
     </row>
     <row r="172" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
-        <v>242</v>
+        <v>170</v>
       </c>
       <c r="B172" t="s">
         <v>800</v>
@@ -24077,7 +24046,7 @@
     </row>
     <row r="173" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
-        <v>243</v>
+        <v>171</v>
       </c>
       <c r="B173" t="s">
         <v>806</v>
@@ -24151,7 +24120,7 @@
     </row>
     <row r="174" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
-        <v>244</v>
+        <v>172</v>
       </c>
       <c r="B174" t="s">
         <v>811</v>
@@ -24225,7 +24194,7 @@
     </row>
     <row r="175" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
-        <v>245</v>
+        <v>173</v>
       </c>
       <c r="B175" t="s">
         <v>816</v>
@@ -24299,7 +24268,7 @@
     </row>
     <row r="176" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
-        <v>246</v>
+        <v>174</v>
       </c>
       <c r="B176" t="s">
         <v>819</v>
@@ -24373,7 +24342,7 @@
     </row>
     <row r="177" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
-        <v>247</v>
+        <v>175</v>
       </c>
       <c r="B177" t="s">
         <v>824</v>
@@ -24447,7 +24416,7 @@
     </row>
     <row r="178" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
-        <v>248</v>
+        <v>176</v>
       </c>
       <c r="B178" t="s">
         <v>827</v>
@@ -24521,7 +24490,7 @@
     </row>
     <row r="179" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
-        <v>249</v>
+        <v>177</v>
       </c>
       <c r="B179" t="s">
         <v>832</v>
@@ -24595,7 +24564,7 @@
     </row>
     <row r="180" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
-        <v>250</v>
+        <v>178</v>
       </c>
       <c r="B180" t="s">
         <v>837</v>
@@ -24669,7 +24638,7 @@
     </row>
     <row r="181" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
-        <v>251</v>
+        <v>179</v>
       </c>
       <c r="B181" t="s">
         <v>840</v>
@@ -24743,7 +24712,7 @@
     </row>
     <row r="182" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
-        <v>252</v>
+        <v>180</v>
       </c>
       <c r="B182" t="s">
         <v>843</v>
@@ -24817,7 +24786,7 @@
     </row>
     <row r="183" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
-        <v>253</v>
+        <v>181</v>
       </c>
       <c r="B183" t="s">
         <v>850</v>
@@ -24891,7 +24860,7 @@
     </row>
     <row r="184" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
-        <v>254</v>
+        <v>182</v>
       </c>
       <c r="B184" t="s">
         <v>855</v>
@@ -24965,7 +24934,7 @@
     </row>
     <row r="185" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
-        <v>255</v>
+        <v>183</v>
       </c>
       <c r="B185" t="s">
         <v>860</v>
@@ -25039,7 +25008,7 @@
     </row>
     <row r="186" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
-        <v>256</v>
+        <v>184</v>
       </c>
       <c r="B186" t="s">
         <v>865</v>
@@ -25113,7 +25082,7 @@
     </row>
     <row r="187" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
-        <v>257</v>
+        <v>185</v>
       </c>
       <c r="B187" t="s">
         <v>870</v>
@@ -25187,7 +25156,7 @@
     </row>
     <row r="188" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
-        <v>258</v>
+        <v>186</v>
       </c>
       <c r="B188" t="s">
         <v>875</v>
@@ -25261,7 +25230,7 @@
     </row>
     <row r="189" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
-        <v>259</v>
+        <v>187</v>
       </c>
       <c r="B189" t="s">
         <v>880</v>
@@ -25335,7 +25304,7 @@
     </row>
     <row r="190" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
-        <v>261</v>
+        <v>188</v>
       </c>
       <c r="B190" t="s">
         <v>883</v>
@@ -25409,7 +25378,7 @@
     </row>
     <row r="191" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
-        <v>262</v>
+        <v>189</v>
       </c>
       <c r="B191" t="s">
         <v>886</v>
@@ -25483,7 +25452,7 @@
     </row>
     <row r="192" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
-        <v>263</v>
+        <v>190</v>
       </c>
       <c r="B192" t="s">
         <v>892</v>
@@ -25557,7 +25526,7 @@
     </row>
     <row r="193" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
-        <v>264</v>
+        <v>191</v>
       </c>
       <c r="B193" t="s">
         <v>897</v>
@@ -25631,7 +25600,7 @@
     </row>
     <row r="194" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
-        <v>265</v>
+        <v>192</v>
       </c>
       <c r="B194" t="s">
         <v>902</v>
@@ -25705,7 +25674,7 @@
     </row>
     <row r="195" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
-        <v>266</v>
+        <v>193</v>
       </c>
       <c r="B195" t="s">
         <v>907</v>
@@ -25779,7 +25748,7 @@
     </row>
     <row r="196" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
-        <v>267</v>
+        <v>194</v>
       </c>
       <c r="B196" t="s">
         <v>912</v>
@@ -25853,7 +25822,7 @@
     </row>
     <row r="197" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
-        <v>268</v>
+        <v>195</v>
       </c>
       <c r="B197" t="s">
         <v>917</v>
@@ -25927,7 +25896,7 @@
     </row>
     <row r="198" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
-        <v>269</v>
+        <v>196</v>
       </c>
       <c r="B198" t="s">
         <v>922</v>
@@ -26001,7 +25970,7 @@
     </row>
     <row r="199" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
-        <v>270</v>
+        <v>197</v>
       </c>
       <c r="B199" t="s">
         <v>927</v>
@@ -26075,7 +26044,7 @@
     </row>
     <row r="200" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
-        <v>271</v>
+        <v>198</v>
       </c>
       <c r="B200" t="s">
         <v>932</v>
@@ -26149,7 +26118,7 @@
     </row>
     <row r="201" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
-        <v>272</v>
+        <v>199</v>
       </c>
       <c r="B201" t="s">
         <v>935</v>
@@ -26223,7 +26192,7 @@
     </row>
     <row r="202" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
-        <v>273</v>
+        <v>200</v>
       </c>
       <c r="B202" t="s">
         <v>940</v>
@@ -26297,7 +26266,7 @@
     </row>
     <row r="203" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
-        <v>274</v>
+        <v>201</v>
       </c>
       <c r="B203" t="s">
         <v>945</v>
@@ -26371,7 +26340,7 @@
     </row>
     <row r="204" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
-        <v>275</v>
+        <v>202</v>
       </c>
       <c r="B204" t="s">
         <v>950</v>
@@ -26445,7 +26414,7 @@
     </row>
     <row r="205" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
-        <v>276</v>
+        <v>203</v>
       </c>
       <c r="B205" t="s">
         <v>955</v>
@@ -26519,7 +26488,7 @@
     </row>
     <row r="206" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
-        <v>277</v>
+        <v>204</v>
       </c>
       <c r="B206" t="s">
         <v>960</v>
@@ -26593,7 +26562,7 @@
     </row>
     <row r="207" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
-        <v>278</v>
+        <v>205</v>
       </c>
       <c r="B207" t="s">
         <v>965</v>
@@ -26667,7 +26636,7 @@
     </row>
     <row r="208" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
-        <v>279</v>
+        <v>206</v>
       </c>
       <c r="B208" t="s">
         <v>968</v>
@@ -26741,7 +26710,7 @@
     </row>
     <row r="209" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
-        <v>280</v>
+        <v>207</v>
       </c>
       <c r="B209" t="s">
         <v>973</v>
@@ -26815,7 +26784,7 @@
     </row>
     <row r="210" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
-        <v>281</v>
+        <v>208</v>
       </c>
       <c r="B210" t="s">
         <v>976</v>
@@ -26889,7 +26858,7 @@
     </row>
     <row r="211" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
-        <v>282</v>
+        <v>209</v>
       </c>
       <c r="B211" t="s">
         <v>981</v>
@@ -26963,7 +26932,7 @@
     </row>
     <row r="212" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
-        <v>283</v>
+        <v>210</v>
       </c>
       <c r="B212" t="s">
         <v>987</v>
@@ -27037,7 +27006,7 @@
     </row>
     <row r="213" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
-        <v>284</v>
+        <v>211</v>
       </c>
       <c r="B213" t="s">
         <v>992</v>
@@ -27111,7 +27080,7 @@
     </row>
     <row r="214" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
-        <v>285</v>
+        <v>212</v>
       </c>
       <c r="B214" t="s">
         <v>995</v>
@@ -27185,7 +27154,7 @@
     </row>
     <row r="215" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
-        <v>286</v>
+        <v>213</v>
       </c>
       <c r="B215" t="s">
         <v>998</v>
@@ -27259,7 +27228,7 @@
     </row>
     <row r="216" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
-        <v>287</v>
+        <v>214</v>
       </c>
       <c r="B216" t="s">
         <v>1001</v>
@@ -27333,7 +27302,7 @@
     </row>
     <row r="217" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
-        <v>288</v>
+        <v>215</v>
       </c>
       <c r="B217" t="s">
         <v>1004</v>
@@ -27407,7 +27376,7 @@
     </row>
     <row r="218" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
-        <v>289</v>
+        <v>216</v>
       </c>
       <c r="B218" t="s">
         <v>1007</v>
@@ -27481,7 +27450,7 @@
     </row>
     <row r="219" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
-        <v>290</v>
+        <v>217</v>
       </c>
       <c r="B219" t="s">
         <v>1010</v>
@@ -27555,7 +27524,7 @@
     </row>
     <row r="220" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
-        <v>291</v>
+        <v>218</v>
       </c>
       <c r="B220" t="s">
         <v>1013</v>
@@ -27629,7 +27598,7 @@
     </row>
     <row r="221" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
-        <v>292</v>
+        <v>219</v>
       </c>
       <c r="B221" t="s">
         <v>1016</v>
@@ -27703,7 +27672,7 @@
     </row>
     <row r="222" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
-        <v>293</v>
+        <v>220</v>
       </c>
       <c r="B222" t="s">
         <v>1022</v>
@@ -27777,7 +27746,7 @@
     </row>
     <row r="223" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
-        <v>294</v>
+        <v>221</v>
       </c>
       <c r="B223" t="s">
         <v>1027</v>
@@ -27851,7 +27820,7 @@
     </row>
     <row r="224" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
-        <v>295</v>
+        <v>222</v>
       </c>
       <c r="B224" t="s">
         <v>1032</v>
@@ -27925,7 +27894,7 @@
     </row>
     <row r="225" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
-        <v>296</v>
+        <v>223</v>
       </c>
       <c r="B225" t="s">
         <v>1036</v>
@@ -27999,7 +27968,7 @@
     </row>
     <row r="226" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
-        <v>297</v>
+        <v>224</v>
       </c>
       <c r="B226" t="s">
         <v>1041</v>
@@ -28073,7 +28042,7 @@
     </row>
     <row r="227" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
-        <v>298</v>
+        <v>225</v>
       </c>
       <c r="B227" t="s">
         <v>1046</v>
@@ -28147,7 +28116,7 @@
     </row>
     <row r="228" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
-        <v>299</v>
+        <v>226</v>
       </c>
       <c r="B228" t="s">
         <v>1049</v>
@@ -28221,7 +28190,7 @@
     </row>
     <row r="229" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
-        <v>300</v>
+        <v>227</v>
       </c>
       <c r="B229" t="s">
         <v>1054</v>
@@ -28295,7 +28264,7 @@
     </row>
     <row r="230" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
-        <v>301</v>
+        <v>228</v>
       </c>
       <c r="B230" t="s">
         <v>1059</v>
@@ -28369,7 +28338,7 @@
     </row>
     <row r="231" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="B231" t="s">
         <v>1063</v>
@@ -28443,7 +28412,7 @@
     </row>
     <row r="232" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
-        <v>303</v>
+        <v>230</v>
       </c>
       <c r="B232" t="s">
         <v>1069</v>
@@ -28517,7 +28486,7 @@
     </row>
     <row r="233" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
-        <v>304</v>
+        <v>231</v>
       </c>
       <c r="B233" t="s">
         <v>1074</v>
@@ -28591,7 +28560,7 @@
     </row>
     <row r="234" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
-        <v>305</v>
+        <v>232</v>
       </c>
       <c r="B234" t="s">
         <v>1079</v>
@@ -28665,7 +28634,7 @@
     </row>
     <row r="235" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
-        <v>306</v>
+        <v>233</v>
       </c>
       <c r="B235" t="s">
         <v>1084</v>
@@ -28739,7 +28708,7 @@
     </row>
     <row r="236" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
-        <v>307</v>
+        <v>234</v>
       </c>
       <c r="B236" t="s">
         <v>1089</v>
@@ -28813,7 +28782,7 @@
     </row>
     <row r="237" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
-        <v>308</v>
+        <v>235</v>
       </c>
       <c r="B237" t="s">
         <v>1094</v>
@@ -28887,7 +28856,7 @@
     </row>
     <row r="238" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
-        <v>309</v>
+        <v>236</v>
       </c>
       <c r="B238" t="s">
         <v>1099</v>
@@ -28961,7 +28930,7 @@
     </row>
     <row r="239" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
-        <v>310</v>
+        <v>237</v>
       </c>
       <c r="B239" t="s">
         <v>1104</v>
@@ -29035,7 +29004,7 @@
     </row>
     <row r="240" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
-        <v>311</v>
+        <v>238</v>
       </c>
       <c r="B240" t="s">
         <v>1108</v>
@@ -29109,7 +29078,7 @@
     </row>
     <row r="241" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
-        <v>312</v>
+        <v>239</v>
       </c>
       <c r="B241" t="s">
         <v>1113</v>
@@ -29183,7 +29152,7 @@
     </row>
     <row r="242" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
-        <v>313</v>
+        <v>240</v>
       </c>
       <c r="B242" t="s">
         <v>1119</v>
@@ -29257,7 +29226,7 @@
     </row>
     <row r="243" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
-        <v>314</v>
+        <v>241</v>
       </c>
       <c r="B243" t="s">
         <v>1124</v>
@@ -29331,7 +29300,7 @@
     </row>
     <row r="244" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
-        <v>315</v>
+        <v>242</v>
       </c>
       <c r="B244" t="s">
         <v>1129</v>
@@ -29405,7 +29374,7 @@
     </row>
     <row r="245" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B245" t="s">
         <v>1134</v>
@@ -29479,7 +29448,7 @@
     </row>
     <row r="246" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
-        <v>317</v>
+        <v>244</v>
       </c>
       <c r="B246" t="s">
         <v>1139</v>
@@ -29553,7 +29522,7 @@
     </row>
     <row r="247" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
-        <v>318</v>
+        <v>245</v>
       </c>
       <c r="B247" t="s">
         <v>1144</v>
@@ -29627,7 +29596,7 @@
     </row>
     <row r="248" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
-        <v>319</v>
+        <v>246</v>
       </c>
       <c r="B248" t="s">
         <v>1149</v>
@@ -29701,7 +29670,7 @@
     </row>
     <row r="249" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
-        <v>320</v>
+        <v>247</v>
       </c>
       <c r="B249" t="s">
         <v>1154</v>
@@ -29775,7 +29744,7 @@
     </row>
     <row r="250" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
-        <v>321</v>
+        <v>248</v>
       </c>
       <c r="B250" t="s">
         <v>1157</v>
@@ -29849,7 +29818,7 @@
     </row>
     <row r="251" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
-        <v>322</v>
+        <v>249</v>
       </c>
       <c r="B251" t="s">
         <v>1162</v>
@@ -29923,7 +29892,7 @@
     </row>
     <row r="252" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
-        <v>326</v>
+        <v>250</v>
       </c>
       <c r="B252" t="s">
         <v>1168</v>
@@ -29997,7 +29966,7 @@
     </row>
     <row r="253" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
-        <v>330</v>
+        <v>251</v>
       </c>
       <c r="B253" t="s">
         <v>1173</v>
@@ -30071,7 +30040,7 @@
     </row>
     <row r="254" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
-        <v>334</v>
+        <v>252</v>
       </c>
       <c r="B254" t="s">
         <v>1177</v>
@@ -30145,7 +30114,7 @@
     </row>
     <row r="255" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="B255" t="s">
         <v>1182</v>
@@ -30219,7 +30188,7 @@
     </row>
     <row r="256" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
-        <v>342</v>
+        <v>254</v>
       </c>
       <c r="B256" t="s">
         <v>1187</v>
@@ -30293,7 +30262,7 @@
     </row>
     <row r="257" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
-        <v>346</v>
+        <v>255</v>
       </c>
       <c r="B257" t="s">
         <v>1190</v>
@@ -30367,7 +30336,7 @@
     </row>
     <row r="258" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
-        <v>350</v>
+        <v>256</v>
       </c>
       <c r="B258" t="s">
         <v>1195</v>
@@ -30441,7 +30410,7 @@
     </row>
     <row r="259" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
-        <v>354</v>
+        <v>257</v>
       </c>
       <c r="B259" t="s">
         <v>1198</v>
@@ -30515,7 +30484,7 @@
     </row>
     <row r="260" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
-        <v>358</v>
+        <v>258</v>
       </c>
       <c r="B260" t="s">
         <v>1203</v>
@@ -30589,7 +30558,7 @@
     </row>
     <row r="261" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
-        <v>362</v>
+        <v>259</v>
       </c>
       <c r="B261" t="s">
         <v>1207</v>
@@ -30663,7 +30632,7 @@
     </row>
     <row r="262" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
-        <v>366</v>
+        <v>260</v>
       </c>
       <c r="B262" t="s">
         <v>1213</v>
@@ -30737,7 +30706,7 @@
     </row>
     <row r="263" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
-        <v>370</v>
+        <v>261</v>
       </c>
       <c r="B263" t="s">
         <v>1216</v>
@@ -30811,7 +30780,7 @@
     </row>
     <row r="264" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
-        <v>374</v>
+        <v>262</v>
       </c>
       <c r="B264" t="s">
         <v>1221</v>
@@ -30885,7 +30854,7 @@
     </row>
     <row r="265" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
-        <v>378</v>
+        <v>263</v>
       </c>
       <c r="B265" t="s">
         <v>1224</v>
@@ -30959,7 +30928,7 @@
     </row>
     <row r="266" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
-        <v>382</v>
+        <v>264</v>
       </c>
       <c r="B266" t="s">
         <v>1227</v>
@@ -31033,7 +31002,7 @@
     </row>
     <row r="267" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
-        <v>386</v>
+        <v>265</v>
       </c>
       <c r="B267" t="s">
         <v>1233</v>
@@ -31107,7 +31076,7 @@
     </row>
     <row r="268" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
-        <v>390</v>
+        <v>266</v>
       </c>
       <c r="B268" t="s">
         <v>1238</v>
@@ -31181,7 +31150,7 @@
     </row>
     <row r="269" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
-        <v>394</v>
+        <v>267</v>
       </c>
       <c r="B269" t="s">
         <v>1242</v>
@@ -31255,7 +31224,7 @@
     </row>
     <row r="270" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
-        <v>398</v>
+        <v>268</v>
       </c>
       <c r="B270" t="s">
         <v>1245</v>
@@ -31329,7 +31298,7 @@
     </row>
     <row r="271" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
-        <v>402</v>
+        <v>269</v>
       </c>
       <c r="B271" t="s">
         <v>1248</v>
@@ -31403,7 +31372,7 @@
     </row>
     <row r="272" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
-        <v>406</v>
+        <v>270</v>
       </c>
       <c r="B272" t="s">
         <v>1251</v>
@@ -31477,7 +31446,7 @@
     </row>
     <row r="273" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
-        <v>410</v>
+        <v>271</v>
       </c>
       <c r="B273" t="s">
         <v>1254</v>
@@ -31551,7 +31520,7 @@
     </row>
     <row r="274" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
-        <v>414</v>
+        <v>272</v>
       </c>
       <c r="B274" t="s">
         <v>1257</v>
@@ -31625,7 +31594,7 @@
     </row>
     <row r="275" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
-        <v>418</v>
+        <v>273</v>
       </c>
       <c r="B275" t="s">
         <v>1063</v>
@@ -31699,7 +31668,7 @@
     </row>
     <row r="276" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
-        <v>422</v>
+        <v>274</v>
       </c>
       <c r="B276" t="s">
         <v>1262</v>
@@ -31773,7 +31742,7 @@
     </row>
     <row r="277" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
-        <v>423</v>
+        <v>275</v>
       </c>
       <c r="B277" t="s">
         <v>1267</v>
@@ -31847,7 +31816,7 @@
     </row>
     <row r="278" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
-        <v>424</v>
+        <v>276</v>
       </c>
       <c r="B278" t="s">
         <v>1272</v>
@@ -31921,7 +31890,7 @@
     </row>
     <row r="279" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
-        <v>425</v>
+        <v>277</v>
       </c>
       <c r="B279" t="s">
         <v>1275</v>
@@ -31995,7 +31964,7 @@
     </row>
     <row r="280" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
-        <v>426</v>
+        <v>278</v>
       </c>
       <c r="B280" t="s">
         <v>1278</v>
@@ -32069,7 +32038,7 @@
     </row>
     <row r="281" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
-        <v>427</v>
+        <v>279</v>
       </c>
       <c r="B281" t="s">
         <v>1281</v>
@@ -32143,7 +32112,7 @@
     </row>
     <row r="282" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
-        <v>428</v>
+        <v>280</v>
       </c>
       <c r="B282" t="s">
         <v>1284</v>
@@ -32217,7 +32186,7 @@
     </row>
     <row r="283" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
-        <v>429</v>
+        <v>281</v>
       </c>
       <c r="B283" t="s">
         <v>1287</v>
@@ -32291,7 +32260,7 @@
     </row>
     <row r="284" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
-        <v>430</v>
+        <v>282</v>
       </c>
       <c r="B284" t="s">
         <v>1293</v>
@@ -32365,7 +32334,7 @@
     </row>
     <row r="285" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
-        <v>431</v>
+        <v>283</v>
       </c>
       <c r="B285" t="s">
         <v>1297</v>
@@ -32439,7 +32408,7 @@
     </row>
     <row r="286" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
-        <v>432</v>
+        <v>284</v>
       </c>
       <c r="B286" t="s">
         <v>1302</v>
@@ -32513,7 +32482,7 @@
     </row>
     <row r="287" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
-        <v>433</v>
+        <v>285</v>
       </c>
       <c r="B287" t="s">
         <v>1306</v>
@@ -32587,7 +32556,7 @@
     </row>
     <row r="288" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
-        <v>434</v>
+        <v>286</v>
       </c>
       <c r="B288" t="s">
         <v>1311</v>
@@ -32661,7 +32630,7 @@
     </row>
     <row r="289" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
-        <v>435</v>
+        <v>287</v>
       </c>
       <c r="B289" t="s">
         <v>1316</v>
@@ -32735,7 +32704,7 @@
     </row>
     <row r="290" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
-        <v>436</v>
+        <v>288</v>
       </c>
       <c r="B290" t="s">
         <v>1321</v>
@@ -32809,7 +32778,7 @@
     </row>
     <row r="291" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
-        <v>437</v>
+        <v>289</v>
       </c>
       <c r="B291" t="s">
         <v>1326</v>
@@ -32883,7 +32852,7 @@
     </row>
     <row r="292" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
-        <v>438</v>
+        <v>290</v>
       </c>
       <c r="B292" t="s">
         <v>1330</v>
@@ -32957,7 +32926,7 @@
     </row>
     <row r="293" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
-        <v>439</v>
+        <v>291</v>
       </c>
       <c r="B293" t="s">
         <v>1335</v>
@@ -33028,7 +32997,7 @@
     </row>
     <row r="294" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
-        <v>448</v>
+        <v>292</v>
       </c>
       <c r="B294" t="s">
         <v>1340</v>
@@ -33102,7 +33071,7 @@
     </row>
     <row r="295" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
-        <v>461</v>
+        <v>293</v>
       </c>
       <c r="B295" t="s">
         <v>1346</v>
@@ -33176,7 +33145,7 @@
     </row>
     <row r="296" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
-        <v>465</v>
+        <v>294</v>
       </c>
       <c r="B296" t="s">
         <v>1350</v>
@@ -33250,7 +33219,7 @@
     </row>
     <row r="297" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
-        <v>474</v>
+        <v>295</v>
       </c>
       <c r="B297" t="s">
         <v>1354</v>
@@ -33324,7 +33293,7 @@
     </row>
     <row r="298" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
-        <v>478</v>
+        <v>296</v>
       </c>
       <c r="B298" t="s">
         <v>1359</v>
@@ -33398,7 +33367,7 @@
     </row>
     <row r="299" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
-        <v>482</v>
+        <v>297</v>
       </c>
       <c r="B299" t="s">
         <v>1364</v>
@@ -33472,7 +33441,7 @@
     </row>
     <row r="300" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
-        <v>490</v>
+        <v>298</v>
       </c>
       <c r="B300" t="s">
         <v>1369</v>
@@ -33546,7 +33515,7 @@
     </row>
     <row r="301" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
-        <v>505</v>
+        <v>299</v>
       </c>
       <c r="B301" t="s">
         <v>1372</v>
@@ -33620,7 +33589,7 @@
     </row>
     <row r="302" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
-        <v>506</v>
+        <v>300</v>
       </c>
       <c r="B302" t="s">
         <v>1377</v>
@@ -33694,7 +33663,7 @@
     </row>
     <row r="303" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
-        <v>507</v>
+        <v>301</v>
       </c>
       <c r="B303" t="s">
         <v>1382</v>
@@ -33768,7 +33737,7 @@
     </row>
     <row r="304" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
-        <v>508</v>
+        <v>302</v>
       </c>
       <c r="B304" t="s">
         <v>1386</v>
@@ -33842,7 +33811,7 @@
     </row>
     <row r="305" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
-        <v>509</v>
+        <v>303</v>
       </c>
       <c r="B305" t="s">
         <v>1391</v>
@@ -33916,7 +33885,7 @@
     </row>
     <row r="306" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
-        <v>510</v>
+        <v>304</v>
       </c>
       <c r="B306" t="s">
         <v>1396</v>
@@ -33990,7 +33959,7 @@
     </row>
     <row r="307" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
-        <v>511</v>
+        <v>305</v>
       </c>
       <c r="B307" t="s">
         <v>1401</v>
@@ -34064,7 +34033,7 @@
     </row>
     <row r="308" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
-        <v>512</v>
+        <v>306</v>
       </c>
       <c r="B308" t="s">
         <v>1404</v>
@@ -34138,7 +34107,7 @@
     </row>
     <row r="309" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
-        <v>513</v>
+        <v>307</v>
       </c>
       <c r="B309" t="s">
         <v>1407</v>
@@ -34212,7 +34181,7 @@
     </row>
     <row r="310" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
-        <v>514</v>
+        <v>308</v>
       </c>
       <c r="B310" t="s">
         <v>1410</v>
@@ -34286,7 +34255,7 @@
     </row>
     <row r="311" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
-        <v>515</v>
+        <v>309</v>
       </c>
       <c r="B311" t="s">
         <v>1415</v>
@@ -34360,7 +34329,7 @@
     </row>
     <row r="312" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
-        <v>516</v>
+        <v>310</v>
       </c>
       <c r="B312" t="s">
         <v>1420</v>
@@ -34434,7 +34403,7 @@
     </row>
     <row r="313" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
-        <v>517</v>
+        <v>311</v>
       </c>
       <c r="B313" t="s">
         <v>1425</v>
@@ -34508,7 +34477,7 @@
     </row>
     <row r="314" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
-        <v>518</v>
+        <v>312</v>
       </c>
       <c r="B314" t="s">
         <v>1428</v>
@@ -34582,7 +34551,7 @@
     </row>
     <row r="315" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
-        <v>519</v>
+        <v>313</v>
       </c>
       <c r="B315" t="s">
         <v>1433</v>
@@ -34656,7 +34625,7 @@
     </row>
     <row r="316" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
-        <v>520</v>
+        <v>314</v>
       </c>
       <c r="B316" t="s">
         <v>1437</v>
@@ -34730,7 +34699,7 @@
     </row>
     <row r="317" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
-        <v>521</v>
+        <v>315</v>
       </c>
       <c r="B317" t="s">
         <v>1440</v>
@@ -34804,7 +34773,7 @@
     </row>
     <row r="318" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
-        <v>522</v>
+        <v>316</v>
       </c>
       <c r="B318" t="s">
         <v>1443</v>
@@ -34878,7 +34847,7 @@
     </row>
     <row r="319" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
-        <v>523</v>
+        <v>317</v>
       </c>
       <c r="B319" t="s">
         <v>1446</v>
@@ -34952,7 +34921,7 @@
     </row>
     <row r="320" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
-        <v>524</v>
+        <v>318</v>
       </c>
       <c r="B320" t="s">
         <v>1450</v>
@@ -35026,7 +34995,7 @@
     </row>
     <row r="321" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
-        <v>525</v>
+        <v>319</v>
       </c>
       <c r="B321" t="s">
         <v>1455</v>
@@ -35100,7 +35069,7 @@
     </row>
     <row r="322" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
-        <v>526</v>
+        <v>320</v>
       </c>
       <c r="B322" t="s">
         <v>1459</v>
@@ -35174,7 +35143,7 @@
     </row>
     <row r="323" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
-        <v>527</v>
+        <v>321</v>
       </c>
       <c r="B323" t="s">
         <v>1464</v>
@@ -35248,7 +35217,7 @@
     </row>
     <row r="324" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
-        <v>528</v>
+        <v>322</v>
       </c>
       <c r="B324" t="s">
         <v>1469</v>
@@ -35322,7 +35291,7 @@
     </row>
     <row r="325" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
-        <v>529</v>
+        <v>323</v>
       </c>
       <c r="B325" t="s">
         <v>1475</v>
@@ -35396,7 +35365,7 @@
     </row>
     <row r="326" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
-        <v>530</v>
+        <v>324</v>
       </c>
       <c r="B326" t="s">
         <v>1480</v>
@@ -35470,7 +35439,7 @@
     </row>
     <row r="327" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
-        <v>531</v>
+        <v>325</v>
       </c>
       <c r="B327" t="s">
         <v>1486</v>
@@ -35544,7 +35513,7 @@
     </row>
     <row r="328" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
-        <v>532</v>
+        <v>326</v>
       </c>
       <c r="B328" t="s">
         <v>1490</v>
@@ -35618,7 +35587,7 @@
     </row>
     <row r="329" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
-        <v>533</v>
+        <v>327</v>
       </c>
       <c r="B329" t="s">
         <v>1496</v>
@@ -35692,7 +35661,7 @@
     </row>
     <row r="330" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
-        <v>554</v>
+        <v>328</v>
       </c>
       <c r="B330" t="s">
         <v>883</v>
@@ -35766,7 +35735,7 @@
     </row>
     <row r="331" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
-        <v>555</v>
+        <v>329</v>
       </c>
       <c r="B331" t="s">
         <v>1505</v>
@@ -35840,7 +35809,7 @@
     </row>
     <row r="332" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
-        <v>556</v>
+        <v>330</v>
       </c>
       <c r="B332" t="s">
         <v>1501</v>
@@ -35914,7 +35883,7 @@
     </row>
     <row r="333" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
-        <v>557</v>
+        <v>331</v>
       </c>
       <c r="B333" t="s">
         <v>1512</v>
@@ -35988,7 +35957,7 @@
     </row>
     <row r="334" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
-        <v>558</v>
+        <v>332</v>
       </c>
       <c r="B334" t="s">
         <v>1517</v>
@@ -36062,7 +36031,7 @@
     </row>
     <row r="335" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
-        <v>559</v>
+        <v>333</v>
       </c>
       <c r="B335" t="s">
         <v>1522</v>
@@ -36136,7 +36105,7 @@
     </row>
     <row r="336" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
-        <v>560</v>
+        <v>334</v>
       </c>
       <c r="B336" t="s">
         <v>1525</v>
@@ -36210,7 +36179,7 @@
     </row>
     <row r="337" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
-        <v>561</v>
+        <v>335</v>
       </c>
       <c r="B337" t="s">
         <v>1530</v>
@@ -36284,7 +36253,7 @@
     </row>
     <row r="338" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
-        <v>562</v>
+        <v>336</v>
       </c>
       <c r="B338" t="s">
         <v>1534</v>
@@ -36358,7 +36327,7 @@
     </row>
     <row r="339" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
-        <v>563</v>
+        <v>337</v>
       </c>
       <c r="B339" t="s">
         <v>1539</v>
@@ -36432,7 +36401,7 @@
     </row>
     <row r="340" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
-        <v>574</v>
+        <v>338</v>
       </c>
       <c r="B340" t="s">
         <v>1544</v>
@@ -36506,7 +36475,7 @@
     </row>
     <row r="341" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
-        <v>575</v>
+        <v>339</v>
       </c>
       <c r="B341" t="s">
         <v>1551</v>
@@ -36580,7 +36549,7 @@
     </row>
     <row r="342" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
-        <v>576</v>
+        <v>340</v>
       </c>
       <c r="B342" t="s">
         <v>1556</v>
@@ -36654,7 +36623,7 @@
     </row>
     <row r="343" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
-        <v>577</v>
+        <v>341</v>
       </c>
       <c r="B343" t="s">
         <v>1561</v>
@@ -36728,7 +36697,7 @@
     </row>
     <row r="344" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
-        <v>578</v>
+        <v>342</v>
       </c>
       <c r="B344" t="s">
         <v>1566</v>
@@ -36802,7 +36771,7 @@
     </row>
     <row r="345" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
-        <v>579</v>
+        <v>343</v>
       </c>
       <c r="B345" t="s">
         <v>1571</v>
@@ -36876,7 +36845,7 @@
     </row>
     <row r="346" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
-        <v>580</v>
+        <v>344</v>
       </c>
       <c r="B346" t="s">
         <v>1576</v>
@@ -36950,7 +36919,7 @@
     </row>
     <row r="347" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
-        <v>581</v>
+        <v>345</v>
       </c>
       <c r="B347" t="s">
         <v>1580</v>
@@ -37024,7 +36993,7 @@
     </row>
     <row r="348" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
-        <v>582</v>
+        <v>346</v>
       </c>
       <c r="B348" t="s">
         <v>1583</v>
@@ -37098,7 +37067,7 @@
     </row>
     <row r="349" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
-        <v>583</v>
+        <v>347</v>
       </c>
       <c r="B349" t="s">
         <v>1586</v>
@@ -37172,7 +37141,7 @@
     </row>
     <row r="350" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
-        <v>594</v>
+        <v>348</v>
       </c>
       <c r="B350" t="s">
         <v>1589</v>
@@ -37246,7 +37215,7 @@
     </row>
     <row r="351" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
-        <v>595</v>
+        <v>349</v>
       </c>
       <c r="B351" t="s">
         <v>1596</v>
@@ -37320,7 +37289,7 @@
     </row>
     <row r="352" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
-        <v>596</v>
+        <v>350</v>
       </c>
       <c r="B352" t="s">
         <v>1601</v>
@@ -37394,7 +37363,7 @@
     </row>
     <row r="353" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
-        <v>597</v>
+        <v>351</v>
       </c>
       <c r="B353" t="s">
         <v>1604</v>
@@ -37468,7 +37437,7 @@
     </row>
     <row r="354" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
-        <v>599</v>
+        <v>352</v>
       </c>
       <c r="B354" t="s">
         <v>1609</v>
@@ -37542,7 +37511,7 @@
     </row>
     <row r="355" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
-        <v>600</v>
+        <v>353</v>
       </c>
       <c r="B355" t="s">
         <v>1612</v>
@@ -37616,7 +37585,7 @@
     </row>
     <row r="356" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
-        <v>601</v>
+        <v>354</v>
       </c>
       <c r="B356" t="s">
         <v>1616</v>
@@ -37690,7 +37659,7 @@
     </row>
     <row r="357" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
-        <v>603</v>
+        <v>355</v>
       </c>
       <c r="B357" t="s">
         <v>1620</v>
@@ -37764,7 +37733,7 @@
     </row>
     <row r="358" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
-        <v>604</v>
+        <v>356</v>
       </c>
       <c r="B358" t="s">
         <v>1625</v>
@@ -37838,7 +37807,7 @@
     </row>
     <row r="359" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
-        <v>605</v>
+        <v>357</v>
       </c>
       <c r="B359" t="s">
         <v>1630</v>
@@ -37912,7 +37881,7 @@
     </row>
     <row r="360" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
-        <v>606</v>
+        <v>358</v>
       </c>
       <c r="B360" t="s">
         <v>1635</v>
@@ -37986,7 +37955,7 @@
     </row>
     <row r="361" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
-        <v>610</v>
+        <v>359</v>
       </c>
       <c r="B361" t="s">
         <v>1640</v>
@@ -38060,7 +38029,7 @@
     </row>
     <row r="362" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
-        <v>611</v>
+        <v>360</v>
       </c>
       <c r="B362" t="s">
         <v>1643</v>
@@ -38134,7 +38103,7 @@
     </row>
     <row r="363" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
-        <v>612</v>
+        <v>361</v>
       </c>
       <c r="B363" t="s">
         <v>1646</v>
@@ -38208,7 +38177,7 @@
     </row>
     <row r="364" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
-        <v>613</v>
+        <v>362</v>
       </c>
       <c r="B364" t="s">
         <v>1649</v>
@@ -38282,7 +38251,7 @@
     </row>
     <row r="365" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
-        <v>614</v>
+        <v>363</v>
       </c>
       <c r="B365" t="s">
         <v>1653</v>
@@ -38356,7 +38325,7 @@
     </row>
     <row r="366" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
-        <v>615</v>
+        <v>364</v>
       </c>
       <c r="B366" t="s">
         <v>1656</v>
@@ -38430,7 +38399,7 @@
     </row>
     <row r="367" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
-        <v>616</v>
+        <v>365</v>
       </c>
       <c r="B367" t="s">
         <v>1661</v>
@@ -38504,7 +38473,7 @@
     </row>
     <row r="368" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
-        <v>617</v>
+        <v>366</v>
       </c>
       <c r="B368" t="s">
         <v>1665</v>
@@ -38578,7 +38547,7 @@
     </row>
     <row r="369" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
-        <v>618</v>
+        <v>367</v>
       </c>
       <c r="B369" t="s">
         <v>1671</v>
@@ -38652,7 +38621,7 @@
     </row>
     <row r="370" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
-        <v>619</v>
+        <v>368</v>
       </c>
       <c r="B370" t="s">
         <v>1676</v>
@@ -38726,7 +38695,7 @@
     </row>
     <row r="371" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
-        <v>620</v>
+        <v>369</v>
       </c>
       <c r="B371" t="s">
         <v>1680</v>
@@ -38800,7 +38769,7 @@
     </row>
     <row r="372" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
-        <v>621</v>
+        <v>370</v>
       </c>
       <c r="B372" t="s">
         <v>1685</v>
@@ -38874,7 +38843,7 @@
     </row>
     <row r="373" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
-        <v>622</v>
+        <v>371</v>
       </c>
       <c r="B373" t="s">
         <v>1690</v>
@@ -38948,7 +38917,7 @@
     </row>
     <row r="374" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
-        <v>623</v>
+        <v>372</v>
       </c>
       <c r="B374" t="s">
         <v>1695</v>
@@ -39022,7 +38991,7 @@
     </row>
     <row r="375" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
-        <v>624</v>
+        <v>373</v>
       </c>
       <c r="B375" t="s">
         <v>1698</v>
@@ -39096,7 +39065,7 @@
     </row>
     <row r="376" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
-        <v>625</v>
+        <v>374</v>
       </c>
       <c r="B376" t="s">
         <v>1701</v>
@@ -39170,7 +39139,7 @@
     </row>
     <row r="377" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
-        <v>626</v>
+        <v>375</v>
       </c>
       <c r="B377" t="s">
         <v>1704</v>
@@ -39244,7 +39213,7 @@
     </row>
     <row r="378" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
-        <v>627</v>
+        <v>376</v>
       </c>
       <c r="B378" t="s">
         <v>1707</v>
@@ -39318,7 +39287,7 @@
     </row>
     <row r="379" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
-        <v>628</v>
+        <v>377</v>
       </c>
       <c r="B379" t="s">
         <v>1712</v>
@@ -39392,7 +39361,7 @@
     </row>
     <row r="380" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
-        <v>629</v>
+        <v>378</v>
       </c>
       <c r="B380" t="s">
         <v>1713</v>
@@ -39466,7 +39435,7 @@
     </row>
     <row r="381" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
-        <v>630</v>
+        <v>379</v>
       </c>
       <c r="B381" t="s">
         <v>1719</v>
@@ -39540,7 +39509,7 @@
     </row>
     <row r="382" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
-        <v>631</v>
+        <v>380</v>
       </c>
       <c r="B382" t="s">
         <v>1724</v>
@@ -39614,7 +39583,7 @@
     </row>
     <row r="383" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
-        <v>632</v>
+        <v>381</v>
       </c>
       <c r="B383" t="s">
         <v>1729</v>
@@ -39688,7 +39657,7 @@
     </row>
     <row r="384" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
-        <v>633</v>
+        <v>382</v>
       </c>
       <c r="B384" t="s">
         <v>1732</v>
@@ -39762,7 +39731,7 @@
     </row>
     <row r="385" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
-        <v>634</v>
+        <v>383</v>
       </c>
       <c r="B385" t="s">
         <v>1735</v>
@@ -39836,7 +39805,7 @@
     </row>
     <row r="386" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
-        <v>635</v>
+        <v>384</v>
       </c>
       <c r="B386" t="s">
         <v>1738</v>
@@ -39910,7 +39879,7 @@
     </row>
     <row r="387" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
-        <v>636</v>
+        <v>385</v>
       </c>
       <c r="B387" t="s">
         <v>1741</v>
@@ -39984,7 +39953,7 @@
     </row>
     <row r="388" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
-        <v>677</v>
+        <v>386</v>
       </c>
       <c r="B388" t="s">
         <v>1744</v>
@@ -40058,7 +40027,7 @@
     </row>
     <row r="389" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
-        <v>678</v>
+        <v>387</v>
       </c>
       <c r="B389" t="s">
         <v>1748</v>
@@ -40132,7 +40101,7 @@
     </row>
     <row r="390" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
-        <v>679</v>
+        <v>388</v>
       </c>
       <c r="B390" t="s">
         <v>1753</v>
@@ -40206,7 +40175,7 @@
     </row>
     <row r="391" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
-        <v>680</v>
+        <v>389</v>
       </c>
       <c r="B391" t="s">
         <v>1758</v>
@@ -40280,7 +40249,7 @@
     </row>
     <row r="392" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
-        <v>681</v>
+        <v>390</v>
       </c>
       <c r="B392" t="s">
         <v>1763</v>
@@ -40354,7 +40323,7 @@
     </row>
     <row r="393" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
-        <v>682</v>
+        <v>391</v>
       </c>
       <c r="B393" t="s">
         <v>1766</v>
@@ -40428,7 +40397,7 @@
     </row>
     <row r="394" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
-        <v>683</v>
+        <v>392</v>
       </c>
       <c r="B394" t="s">
         <v>1770</v>
@@ -40502,7 +40471,7 @@
     </row>
     <row r="395" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
-        <v>684</v>
+        <v>393</v>
       </c>
       <c r="B395" t="s">
         <v>1774</v>
@@ -40576,7 +40545,7 @@
     </row>
     <row r="396" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
-        <v>685</v>
+        <v>394</v>
       </c>
       <c r="B396" t="s">
         <v>1779</v>
@@ -40650,7 +40619,7 @@
     </row>
     <row r="397" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
-        <v>686</v>
+        <v>395</v>
       </c>
       <c r="B397" t="s">
         <v>1782</v>
@@ -40724,7 +40693,7 @@
     </row>
     <row r="398" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
-        <v>687</v>
+        <v>396</v>
       </c>
       <c r="B398" t="s">
         <v>1787</v>
@@ -40798,7 +40767,7 @@
     </row>
     <row r="399" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
-        <v>688</v>
+        <v>397</v>
       </c>
       <c r="B399" t="s">
         <v>1793</v>
@@ -40872,7 +40841,7 @@
     </row>
     <row r="400" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
-        <v>689</v>
+        <v>398</v>
       </c>
       <c r="B400" t="s">
         <v>1798</v>
@@ -40946,7 +40915,7 @@
     </row>
     <row r="401" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
-        <v>690</v>
+        <v>399</v>
       </c>
       <c r="B401" t="s">
         <v>1803</v>
@@ -41020,7 +40989,7 @@
     </row>
     <row r="402" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
-        <v>691</v>
+        <v>400</v>
       </c>
       <c r="B402" t="s">
         <v>1799</v>
@@ -41094,7 +41063,7 @@
     </row>
     <row r="403" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
-        <v>692</v>
+        <v>401</v>
       </c>
       <c r="B403" t="s">
         <v>1808</v>
@@ -41168,7 +41137,7 @@
     </row>
     <row r="404" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
-        <v>693</v>
+        <v>402</v>
       </c>
       <c r="B404" t="s">
         <v>1812</v>
@@ -41242,7 +41211,7 @@
     </row>
     <row r="405" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
-        <v>694</v>
+        <v>403</v>
       </c>
       <c r="B405" t="s">
         <v>1815</v>
@@ -41316,7 +41285,7 @@
     </row>
     <row r="406" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
-        <v>695</v>
+        <v>404</v>
       </c>
       <c r="B406" t="s">
         <v>1818</v>
@@ -41390,7 +41359,7 @@
     </row>
     <row r="407" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
-        <v>696</v>
+        <v>405</v>
       </c>
       <c r="B407" t="s">
         <v>1821</v>
@@ -41464,7 +41433,7 @@
     </row>
     <row r="408" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
-        <v>707</v>
+        <v>406</v>
       </c>
       <c r="B408" t="s">
         <v>1824</v>
@@ -41538,7 +41507,7 @@
     </row>
     <row r="409" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
-        <v>708</v>
+        <v>407</v>
       </c>
       <c r="B409" t="s">
         <v>1831</v>
@@ -41612,7 +41581,7 @@
     </row>
     <row r="410" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
-        <v>709</v>
+        <v>408</v>
       </c>
       <c r="B410" t="s">
         <v>1835</v>
@@ -41686,7 +41655,7 @@
     </row>
     <row r="411" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
-        <v>710</v>
+        <v>409</v>
       </c>
       <c r="B411" t="s">
         <v>1840</v>
@@ -41760,7 +41729,7 @@
     </row>
     <row r="412" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
-        <v>711</v>
+        <v>410</v>
       </c>
       <c r="B412" t="s">
         <v>1843</v>
@@ -41834,7 +41803,7 @@
     </row>
     <row r="413" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
-        <v>712</v>
+        <v>411</v>
       </c>
       <c r="B413" t="s">
         <v>1848</v>
@@ -41908,7 +41877,7 @@
     </row>
     <row r="414" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
-        <v>713</v>
+        <v>412</v>
       </c>
       <c r="B414" t="s">
         <v>1852</v>
@@ -41982,7 +41951,7 @@
     </row>
     <row r="415" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
-        <v>714</v>
+        <v>413</v>
       </c>
       <c r="B415" t="s">
         <v>1857</v>
@@ -42056,7 +42025,7 @@
     </row>
     <row r="416" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
-        <v>715</v>
+        <v>414</v>
       </c>
       <c r="B416" t="s">
         <v>1860</v>
@@ -42130,7 +42099,7 @@
     </row>
     <row r="417" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
-        <v>716</v>
+        <v>415</v>
       </c>
       <c r="B417" t="s">
         <v>1865</v>
@@ -42204,7 +42173,7 @@
     </row>
     <row r="418" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
-        <v>717</v>
+        <v>416</v>
       </c>
       <c r="B418" t="s">
         <v>1870</v>
@@ -42278,7 +42247,7 @@
     </row>
     <row r="419" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
-        <v>718</v>
+        <v>417</v>
       </c>
       <c r="B419" t="s">
         <v>1877</v>
@@ -42352,7 +42321,7 @@
     </row>
     <row r="420" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
-        <v>719</v>
+        <v>418</v>
       </c>
       <c r="B420" t="s">
         <v>1882</v>
@@ -42426,7 +42395,7 @@
     </row>
     <row r="421" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
-        <v>720</v>
+        <v>419</v>
       </c>
       <c r="B421" t="s">
         <v>1887</v>
@@ -42500,7 +42469,7 @@
     </row>
     <row r="422" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
-        <v>721</v>
+        <v>420</v>
       </c>
       <c r="B422" t="s">
         <v>1227</v>
@@ -42574,7 +42543,7 @@
     </row>
     <row r="423" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
-        <v>722</v>
+        <v>421</v>
       </c>
       <c r="B423" t="s">
         <v>1895</v>
@@ -42648,7 +42617,7 @@
     </row>
     <row r="424" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
-        <v>723</v>
+        <v>422</v>
       </c>
       <c r="B424" t="s">
         <v>1900</v>
@@ -42722,7 +42691,7 @@
     </row>
     <row r="425" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
-        <v>724</v>
+        <v>423</v>
       </c>
       <c r="B425" t="s">
         <v>1905</v>
@@ -42796,7 +42765,7 @@
     </row>
     <row r="426" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
-        <v>725</v>
+        <v>424</v>
       </c>
       <c r="B426" t="s">
         <v>1910</v>
@@ -42870,7 +42839,7 @@
     </row>
     <row r="427" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
-        <v>726</v>
+        <v>425</v>
       </c>
       <c r="B427" t="s">
         <v>1913</v>
@@ -42944,7 +42913,7 @@
     </row>
     <row r="428" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
-        <v>727</v>
+        <v>426</v>
       </c>
       <c r="B428" t="s">
         <v>1918</v>
@@ -43018,7 +42987,7 @@
     </row>
     <row r="429" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
-        <v>728</v>
+        <v>427</v>
       </c>
       <c r="B429" t="s">
         <v>244</v>
@@ -43092,7 +43061,7 @@
     </row>
     <row r="430" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
-        <v>729</v>
+        <v>428</v>
       </c>
       <c r="B430" t="s">
         <v>1929</v>
@@ -43166,7 +43135,7 @@
     </row>
     <row r="431" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
-        <v>730</v>
+        <v>429</v>
       </c>
       <c r="B431" t="s">
         <v>1934</v>
@@ -43240,7 +43209,7 @@
     </row>
     <row r="432" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
-        <v>731</v>
+        <v>430</v>
       </c>
       <c r="B432" t="s">
         <v>1939</v>
@@ -43314,7 +43283,7 @@
     </row>
     <row r="433" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
-        <v>732</v>
+        <v>431</v>
       </c>
       <c r="B433" t="s">
         <v>1944</v>
@@ -43388,7 +43357,7 @@
     </row>
     <row r="434" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
-        <v>733</v>
+        <v>432</v>
       </c>
       <c r="B434" t="s">
         <v>1948</v>
@@ -43462,7 +43431,7 @@
     </row>
     <row r="435" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
-        <v>734</v>
+        <v>433</v>
       </c>
       <c r="B435" t="s">
         <v>1953</v>
@@ -43536,7 +43505,7 @@
     </row>
     <row r="436" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
-        <v>735</v>
+        <v>434</v>
       </c>
       <c r="B436" t="s">
         <v>1957</v>
@@ -43610,7 +43579,7 @@
     </row>
     <row r="437" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
-        <v>736</v>
+        <v>435</v>
       </c>
       <c r="B437" t="s">
         <v>1962</v>
@@ -43684,7 +43653,7 @@
     </row>
     <row r="438" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
-        <v>747</v>
+        <v>436</v>
       </c>
       <c r="B438" t="s">
         <v>1966</v>
@@ -43758,7 +43727,7 @@
     </row>
     <row r="439" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
-        <v>748</v>
+        <v>437</v>
       </c>
       <c r="B439" t="s">
         <v>589</v>
@@ -43832,7 +43801,7 @@
     </row>
     <row r="440" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
-        <v>749</v>
+        <v>438</v>
       </c>
       <c r="B440" t="s">
         <v>1974</v>
@@ -43906,7 +43875,7 @@
     </row>
     <row r="441" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
-        <v>750</v>
+        <v>439</v>
       </c>
       <c r="B441" t="s">
         <v>1157</v>
@@ -43980,7 +43949,7 @@
     </row>
     <row r="442" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
-        <v>751</v>
+        <v>440</v>
       </c>
       <c r="B442" t="s">
         <v>1981</v>
@@ -44054,7 +44023,7 @@
     </row>
     <row r="443" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
-        <v>752</v>
+        <v>441</v>
       </c>
       <c r="B443" t="s">
         <v>1984</v>
@@ -44128,7 +44097,7 @@
     </row>
     <row r="444" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
-        <v>753</v>
+        <v>442</v>
       </c>
       <c r="B444" t="s">
         <v>1987</v>
@@ -44202,7 +44171,7 @@
     </row>
     <row r="445" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
-        <v>754</v>
+        <v>443</v>
       </c>
       <c r="B445" t="s">
         <v>1990</v>
@@ -44276,7 +44245,7 @@
     </row>
     <row r="446" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
-        <v>755</v>
+        <v>444</v>
       </c>
       <c r="B446" t="s">
         <v>1994</v>
@@ -44350,7 +44319,7 @@
     </row>
     <row r="447" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
-        <v>756</v>
+        <v>445</v>
       </c>
       <c r="B447" t="s">
         <v>1999</v>
@@ -44424,7 +44393,7 @@
     </row>
     <row r="448" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
-        <v>757</v>
+        <v>446</v>
       </c>
       <c r="B448" t="s">
         <v>2002</v>
@@ -44495,7 +44464,7 @@
     </row>
     <row r="449" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
-        <v>758</v>
+        <v>447</v>
       </c>
       <c r="B449" t="s">
         <v>2007</v>
@@ -44566,7 +44535,7 @@
     </row>
     <row r="450" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
-        <v>759</v>
+        <v>448</v>
       </c>
       <c r="B450" t="s">
         <v>2012</v>
@@ -44637,7 +44606,7 @@
     </row>
     <row r="451" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
-        <v>761</v>
+        <v>449</v>
       </c>
       <c r="B451" t="s">
         <v>2017</v>
@@ -44708,7 +44677,7 @@
     </row>
     <row r="452" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
-        <v>762</v>
+        <v>450</v>
       </c>
       <c r="B452" t="s">
         <v>2022</v>
@@ -44779,7 +44748,7 @@
     </row>
     <row r="453" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
-        <v>763</v>
+        <v>451</v>
       </c>
       <c r="B453" t="s">
         <v>2025</v>
@@ -44850,7 +44819,7 @@
     </row>
     <row r="454" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
-        <v>764</v>
+        <v>452</v>
       </c>
       <c r="B454" t="s">
         <v>2030</v>
@@ -44924,7 +44893,7 @@
     </row>
     <row r="455" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
-        <v>765</v>
+        <v>453</v>
       </c>
       <c r="B455" t="s">
         <v>2035</v>
@@ -44998,7 +44967,7 @@
     </row>
     <row r="456" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
-        <v>766</v>
+        <v>454</v>
       </c>
       <c r="B456" t="s">
         <v>2039</v>
@@ -45072,7 +45041,7 @@
     </row>
     <row r="457" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
-        <v>767</v>
+        <v>455</v>
       </c>
       <c r="B457" t="s">
         <v>2044</v>
@@ -45146,7 +45115,7 @@
     </row>
     <row r="458" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
-        <v>768</v>
+        <v>456</v>
       </c>
       <c r="B458" t="s">
         <v>2047</v>
@@ -45220,7 +45189,7 @@
     </row>
     <row r="459" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
-        <v>769</v>
+        <v>457</v>
       </c>
       <c r="B459" t="s">
         <v>2051</v>
@@ -45294,7 +45263,7 @@
     </row>
     <row r="460" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
-        <v>770</v>
+        <v>458</v>
       </c>
       <c r="B460" t="s">
         <v>2054</v>
@@ -45368,7 +45337,7 @@
     </row>
     <row r="461" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
-        <v>771</v>
+        <v>459</v>
       </c>
       <c r="B461" t="s">
         <v>2057</v>
@@ -45442,7 +45411,7 @@
     </row>
     <row r="462" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
-        <v>772</v>
+        <v>460</v>
       </c>
       <c r="B462" t="s">
         <v>2061</v>
@@ -45516,7 +45485,7 @@
     </row>
     <row r="463" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
-        <v>773</v>
+        <v>461</v>
       </c>
       <c r="B463" t="s">
         <v>2064</v>
@@ -45590,7 +45559,7 @@
     </row>
     <row r="464" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
-        <v>774</v>
+        <v>462</v>
       </c>
       <c r="B464" t="s">
         <v>2067</v>
@@ -45664,7 +45633,7 @@
     </row>
     <row r="465" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
-        <v>778</v>
+        <v>463</v>
       </c>
       <c r="B465" t="s">
         <v>2074</v>
@@ -45738,7 +45707,7 @@
     </row>
     <row r="466" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
-        <v>782</v>
+        <v>464</v>
       </c>
       <c r="B466" t="s">
         <v>2079</v>
@@ -45812,7 +45781,7 @@
     </row>
     <row r="467" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
-        <v>786</v>
+        <v>465</v>
       </c>
       <c r="B467" t="s">
         <v>2084</v>
@@ -45886,7 +45855,7 @@
     </row>
     <row r="468" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
-        <v>790</v>
+        <v>466</v>
       </c>
       <c r="B468" t="s">
         <v>2089</v>
@@ -45960,7 +45929,7 @@
     </row>
     <row r="469" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
-        <v>794</v>
+        <v>467</v>
       </c>
       <c r="B469" t="s">
         <v>2094</v>
@@ -46034,7 +46003,7 @@
     </row>
     <row r="470" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
-        <v>798</v>
+        <v>468</v>
       </c>
       <c r="B470" t="s">
         <v>2099</v>
@@ -46108,7 +46077,7 @@
     </row>
     <row r="471" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
-        <v>802</v>
+        <v>469</v>
       </c>
       <c r="B471" t="s">
         <v>2103</v>
@@ -46182,7 +46151,7 @@
     </row>
     <row r="472" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
-        <v>810</v>
+        <v>470</v>
       </c>
       <c r="B472" t="s">
         <v>2108</v>
@@ -46256,7 +46225,7 @@
     </row>
     <row r="473" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
-        <v>814</v>
+        <v>471</v>
       </c>
       <c r="B473" t="s">
         <v>2111</v>
@@ -46330,7 +46299,7 @@
     </row>
     <row r="474" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
-        <v>815</v>
+        <v>472</v>
       </c>
       <c r="B474" t="s">
         <v>2118</v>
@@ -46404,7 +46373,7 @@
     </row>
     <row r="475" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
-        <v>816</v>
+        <v>473</v>
       </c>
       <c r="B475" t="s">
         <v>2123</v>
@@ -46478,7 +46447,7 @@
     </row>
     <row r="476" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
-        <v>817</v>
+        <v>474</v>
       </c>
       <c r="B476" t="s">
         <v>2127</v>
@@ -46552,7 +46521,7 @@
     </row>
     <row r="477" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
-        <v>818</v>
+        <v>475</v>
       </c>
       <c r="B477" t="s">
         <v>2132</v>
@@ -46626,7 +46595,7 @@
     </row>
     <row r="478" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
-        <v>819</v>
+        <v>476</v>
       </c>
       <c r="B478" t="s">
         <v>2136</v>
@@ -46700,7 +46669,7 @@
     </row>
     <row r="479" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
-        <v>820</v>
+        <v>477</v>
       </c>
       <c r="B479" t="s">
         <v>2140</v>
@@ -46774,7 +46743,7 @@
     </row>
     <row r="480" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
-        <v>821</v>
+        <v>478</v>
       </c>
       <c r="B480" t="s">
         <v>2143</v>
@@ -46848,7 +46817,7 @@
     </row>
     <row r="481" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
-        <v>822</v>
+        <v>479</v>
       </c>
       <c r="B481" t="s">
         <v>2147</v>
@@ -46922,7 +46891,7 @@
     </row>
     <row r="482" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
-        <v>823</v>
+        <v>480</v>
       </c>
       <c r="B482" t="s">
         <v>2152</v>
@@ -46996,7 +46965,7 @@
     </row>
     <row r="483" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
-        <v>824</v>
+        <v>481</v>
       </c>
       <c r="B483" t="s">
         <v>2158</v>
@@ -47070,7 +47039,7 @@
     </row>
     <row r="484" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
-        <v>825</v>
+        <v>482</v>
       </c>
       <c r="B484" t="s">
         <v>2163</v>
@@ -47144,7 +47113,7 @@
     </row>
     <row r="485" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
-        <v>826</v>
+        <v>483</v>
       </c>
       <c r="B485" t="s">
         <v>2168</v>
@@ -47218,7 +47187,7 @@
     </row>
     <row r="486" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
-        <v>827</v>
+        <v>484</v>
       </c>
       <c r="B486" t="s">
         <v>2171</v>
@@ -47292,7 +47261,7 @@
     </row>
     <row r="487" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
-        <v>828</v>
+        <v>485</v>
       </c>
       <c r="B487" t="s">
         <v>2174</v>
@@ -47366,7 +47335,7 @@
     </row>
     <row r="488" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
-        <v>829</v>
+        <v>486</v>
       </c>
       <c r="B488" t="s">
         <v>2179</v>
@@ -47440,7 +47409,7 @@
     </row>
     <row r="489" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
-        <v>830</v>
+        <v>487</v>
       </c>
       <c r="B489" t="s">
         <v>2183</v>
@@ -47514,7 +47483,7 @@
     </row>
     <row r="490" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
-        <v>831</v>
+        <v>488</v>
       </c>
       <c r="B490" t="s">
         <v>2186</v>
@@ -47588,7 +47557,7 @@
     </row>
     <row r="491" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
-        <v>832</v>
+        <v>489</v>
       </c>
       <c r="B491" t="s">
         <v>2191</v>
@@ -47662,7 +47631,7 @@
     </row>
     <row r="492" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
-        <v>843</v>
+        <v>490</v>
       </c>
       <c r="B492" t="s">
         <v>2196</v>
@@ -47736,7 +47705,7 @@
     </row>
     <row r="493" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
-        <v>847</v>
+        <v>491</v>
       </c>
       <c r="B493" t="s">
         <v>2202</v>
@@ -47810,7 +47779,7 @@
     </row>
     <row r="494" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
-        <v>851</v>
+        <v>492</v>
       </c>
       <c r="B494" t="s">
         <v>2207</v>
@@ -47884,7 +47853,7 @@
     </row>
     <row r="495" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
-        <v>855</v>
+        <v>493</v>
       </c>
       <c r="B495" t="s">
         <v>2211</v>
@@ -47958,7 +47927,7 @@
     </row>
     <row r="496" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
-        <v>859</v>
+        <v>494</v>
       </c>
       <c r="B496" t="s">
         <v>2216</v>
@@ -48032,7 +48001,7 @@
     </row>
     <row r="497" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
-        <v>863</v>
+        <v>495</v>
       </c>
       <c r="B497" t="s">
         <v>2221</v>
@@ -48106,7 +48075,7 @@
     </row>
     <row r="498" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
-        <v>867</v>
+        <v>496</v>
       </c>
       <c r="B498" t="s">
         <v>2226</v>
@@ -48180,7 +48149,7 @@
     </row>
     <row r="499" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
-        <v>871</v>
+        <v>497</v>
       </c>
       <c r="B499" t="s">
         <v>2231</v>
@@ -48254,7 +48223,7 @@
     </row>
     <row r="500" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
-        <v>875</v>
+        <v>498</v>
       </c>
       <c r="B500" t="s">
         <v>2236</v>
@@ -48328,7 +48297,7 @@
     </row>
     <row r="501" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
-        <v>879</v>
+        <v>499</v>
       </c>
       <c r="B501" t="s">
         <v>2239</v>
@@ -48402,7 +48371,7 @@
     </row>
     <row r="502" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
-        <v>883</v>
+        <v>500</v>
       </c>
       <c r="B502" t="s">
         <v>2244</v>
@@ -48473,7 +48442,7 @@
     </row>
     <row r="503" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
-        <v>884</v>
+        <v>501</v>
       </c>
       <c r="B503" t="s">
         <v>2250</v>
@@ -48544,7 +48513,7 @@
     </row>
     <row r="504" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
-        <v>885</v>
+        <v>502</v>
       </c>
       <c r="B504" t="s">
         <v>2253</v>
@@ -48615,7 +48584,7 @@
     </row>
     <row r="505" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
-        <v>886</v>
+        <v>503</v>
       </c>
       <c r="B505" t="s">
         <v>2256</v>
@@ -48686,7 +48655,7 @@
     </row>
     <row r="506" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
-        <v>887</v>
+        <v>504</v>
       </c>
       <c r="B506" t="s">
         <v>2259</v>
@@ -48757,7 +48726,7 @@
     </row>
     <row r="507" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
-        <v>888</v>
+        <v>505</v>
       </c>
       <c r="B507" t="s">
         <v>2262</v>
@@ -48828,7 +48797,7 @@
     </row>
     <row r="508" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
-        <v>889</v>
+        <v>506</v>
       </c>
       <c r="B508" t="s">
         <v>2265</v>
@@ -48899,7 +48868,7 @@
     </row>
     <row r="509" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
-        <v>890</v>
+        <v>507</v>
       </c>
       <c r="B509" t="s">
         <v>2270</v>
@@ -48970,7 +48939,7 @@
     </row>
     <row r="510" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
-        <v>891</v>
+        <v>508</v>
       </c>
       <c r="B510" t="s">
         <v>302</v>
@@ -49044,7 +49013,7 @@
     </row>
     <row r="511" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
-        <v>892</v>
+        <v>509</v>
       </c>
       <c r="B511" t="s">
         <v>2277</v>
@@ -49118,7 +49087,7 @@
     </row>
     <row r="512" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
-        <v>893</v>
+        <v>510</v>
       </c>
       <c r="B512" t="s">
         <v>2281</v>
@@ -49192,7 +49161,7 @@
     </row>
     <row r="513" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
-        <v>894</v>
+        <v>511</v>
       </c>
       <c r="B513" t="s">
         <v>2286</v>
@@ -49266,7 +49235,7 @@
     </row>
     <row r="514" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
-        <v>895</v>
+        <v>512</v>
       </c>
       <c r="B514" t="s">
         <v>2291</v>
@@ -49340,7 +49309,7 @@
     </row>
     <row r="515" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
-        <v>896</v>
+        <v>513</v>
       </c>
       <c r="B515" t="s">
         <v>2294</v>
@@ -49414,7 +49383,7 @@
     </row>
     <row r="516" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
-        <v>897</v>
+        <v>514</v>
       </c>
       <c r="B516" t="s">
         <v>2299</v>
@@ -49488,7 +49457,7 @@
     </row>
     <row r="517" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
-        <v>898</v>
+        <v>515</v>
       </c>
       <c r="B517" t="s">
         <v>2302</v>
@@ -49562,7 +49531,7 @@
     </row>
     <row r="518" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
-        <v>899</v>
+        <v>516</v>
       </c>
       <c r="B518" t="s">
         <v>2307</v>
@@ -49636,7 +49605,7 @@
     </row>
     <row r="519" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
-        <v>900</v>
+        <v>517</v>
       </c>
       <c r="B519" t="s">
         <v>2310</v>
@@ -49710,7 +49679,7 @@
     </row>
     <row r="520" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
-        <v>901</v>
+        <v>518</v>
       </c>
       <c r="B520" t="s">
         <v>2313</v>
@@ -49784,7 +49753,7 @@
     </row>
     <row r="521" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
-        <v>902</v>
+        <v>519</v>
       </c>
       <c r="B521" t="s">
         <v>2319</v>
@@ -49858,7 +49827,7 @@
     </row>
     <row r="522" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
-        <v>903</v>
+        <v>520</v>
       </c>
       <c r="B522" t="s">
         <v>2324</v>
@@ -49932,7 +49901,7 @@
     </row>
     <row r="523" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
-        <v>904</v>
+        <v>521</v>
       </c>
       <c r="B523" t="s">
         <v>2329</v>
@@ -50006,7 +49975,7 @@
     </row>
     <row r="524" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
-        <v>905</v>
+        <v>522</v>
       </c>
       <c r="B524" t="s">
         <v>2334</v>
@@ -50080,7 +50049,7 @@
     </row>
     <row r="525" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
-        <v>906</v>
+        <v>523</v>
       </c>
       <c r="B525" t="s">
         <v>2339</v>
@@ -50154,7 +50123,7 @@
     </row>
     <row r="526" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
-        <v>907</v>
+        <v>524</v>
       </c>
       <c r="B526" t="s">
         <v>2344</v>
@@ -50228,7 +50197,7 @@
     </row>
     <row r="527" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
-        <v>908</v>
+        <v>525</v>
       </c>
       <c r="B527" t="s">
         <v>2347</v>
@@ -50302,7 +50271,7 @@
     </row>
     <row r="528" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
-        <v>909</v>
+        <v>526</v>
       </c>
       <c r="B528" t="s">
         <v>2350</v>
@@ -50376,7 +50345,7 @@
     </row>
     <row r="529" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
-        <v>910</v>
+        <v>527</v>
       </c>
       <c r="B529" t="s">
         <v>2355</v>
@@ -50450,7 +50419,7 @@
     </row>
     <row r="530" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
-        <v>911</v>
+        <v>528</v>
       </c>
       <c r="B530" t="s">
         <v>77</v>
@@ -50524,7 +50493,7 @@
     </row>
     <row r="531" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
-        <v>912</v>
+        <v>529</v>
       </c>
       <c r="B531" t="s">
         <v>2362</v>
@@ -50598,7 +50567,7 @@
     </row>
     <row r="532" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
-        <v>913</v>
+        <v>530</v>
       </c>
       <c r="B532" t="s">
         <v>2365</v>
@@ -50672,7 +50641,7 @@
     </row>
     <row r="533" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
-        <v>914</v>
+        <v>531</v>
       </c>
       <c r="B533" t="s">
         <v>2372</v>
@@ -50746,7 +50715,7 @@
     </row>
     <row r="534" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
-        <v>915</v>
+        <v>532</v>
       </c>
       <c r="B534" t="s">
         <v>2377</v>
@@ -50820,7 +50789,7 @@
     </row>
     <row r="535" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
-        <v>916</v>
+        <v>533</v>
       </c>
       <c r="B535" t="s">
         <v>2381</v>
@@ -50894,7 +50863,7 @@
     </row>
     <row r="536" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
-        <v>918</v>
+        <v>534</v>
       </c>
       <c r="B536" t="s">
         <v>2386</v>
@@ -50968,7 +50937,7 @@
     </row>
     <row r="537" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
-        <v>919</v>
+        <v>535</v>
       </c>
       <c r="B537" t="s">
         <v>2391</v>
@@ -51042,7 +51011,7 @@
     </row>
     <row r="538" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
-        <v>920</v>
+        <v>536</v>
       </c>
       <c r="B538" t="s">
         <v>2394</v>
@@ -51116,7 +51085,7 @@
     </row>
     <row r="539" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
-        <v>921</v>
+        <v>537</v>
       </c>
       <c r="B539" t="s">
         <v>2397</v>
@@ -51190,7 +51159,7 @@
     </row>
     <row r="540" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
-        <v>922</v>
+        <v>538</v>
       </c>
       <c r="B540" t="s">
         <v>2400</v>
@@ -51264,7 +51233,7 @@
     </row>
     <row r="541" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
-        <v>943</v>
+        <v>539</v>
       </c>
       <c r="B541" t="s">
         <v>2403</v>
@@ -51338,7 +51307,7 @@
     </row>
     <row r="542" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
-        <v>944</v>
+        <v>540</v>
       </c>
       <c r="B542" t="s">
         <v>2409</v>
@@ -51412,7 +51381,7 @@
     </row>
     <row r="543" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
-        <v>945</v>
+        <v>541</v>
       </c>
       <c r="B543" t="s">
         <v>2414</v>
@@ -51486,7 +51455,7 @@
     </row>
     <row r="544" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
-        <v>946</v>
+        <v>542</v>
       </c>
       <c r="B544" t="s">
         <v>2419</v>
@@ -51560,7 +51529,7 @@
     </row>
     <row r="545" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
-        <v>947</v>
+        <v>543</v>
       </c>
       <c r="B545" t="s">
         <v>2424</v>
@@ -51634,7 +51603,7 @@
     </row>
     <row r="546" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
-        <v>948</v>
+        <v>544</v>
       </c>
       <c r="B546" t="s">
         <v>2429</v>
@@ -51708,7 +51677,7 @@
     </row>
     <row r="547" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
-        <v>949</v>
+        <v>545</v>
       </c>
       <c r="B547" t="s">
         <v>2434</v>
@@ -51782,7 +51751,7 @@
     </row>
     <row r="548" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
-        <v>950</v>
+        <v>546</v>
       </c>
       <c r="B548" t="s">
         <v>2439</v>
@@ -51856,7 +51825,7 @@
     </row>
     <row r="549" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
-        <v>951</v>
+        <v>547</v>
       </c>
       <c r="B549" t="s">
         <v>2443</v>
@@ -51930,7 +51899,7 @@
     </row>
     <row r="550" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
-        <v>952</v>
+        <v>548</v>
       </c>
       <c r="B550" t="s">
         <v>2448</v>
@@ -52004,7 +51973,7 @@
     </row>
     <row r="551" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
-        <v>953</v>
+        <v>549</v>
       </c>
       <c r="B551" t="s">
         <v>2453</v>
@@ -52078,7 +52047,7 @@
     </row>
     <row r="552" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
-        <v>958</v>
+        <v>550</v>
       </c>
       <c r="B552" t="s">
         <v>2458</v>
@@ -52152,7 +52121,7 @@
     </row>
     <row r="553" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
-        <v>959</v>
+        <v>551</v>
       </c>
       <c r="B553" t="s">
         <v>2463</v>
@@ -52226,7 +52195,7 @@
     </row>
     <row r="554" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
-        <v>960</v>
+        <v>552</v>
       </c>
       <c r="B554" t="s">
         <v>1316</v>
@@ -52300,7 +52269,7 @@
     </row>
     <row r="555" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
-        <v>961</v>
+        <v>553</v>
       </c>
       <c r="B555" t="s">
         <v>2472</v>
@@ -52374,7 +52343,7 @@
     </row>
     <row r="556" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
-        <v>962</v>
+        <v>554</v>
       </c>
       <c r="B556" t="s">
         <v>2475</v>
@@ -52448,7 +52417,7 @@
     </row>
     <row r="557" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
-        <v>963</v>
+        <v>555</v>
       </c>
       <c r="B557" t="s">
         <v>2478</v>
@@ -52522,7 +52491,7 @@
     </row>
     <row r="558" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
-        <v>964</v>
+        <v>556</v>
       </c>
       <c r="B558" t="s">
         <v>2481</v>
@@ -52596,7 +52565,7 @@
     </row>
     <row r="559" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
-        <v>965</v>
+        <v>557</v>
       </c>
       <c r="B559" t="s">
         <v>2484</v>
@@ -52670,7 +52639,7 @@
     </row>
     <row r="560" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
-        <v>966</v>
+        <v>558</v>
       </c>
       <c r="B560" t="s">
         <v>2490</v>
@@ -52744,7 +52713,7 @@
     </row>
     <row r="561" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
-        <v>967</v>
+        <v>559</v>
       </c>
       <c r="B561" t="s">
         <v>2495</v>
@@ -52818,7 +52787,7 @@
     </row>
     <row r="562" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
-        <v>968</v>
+        <v>560</v>
       </c>
       <c r="B562" t="s">
         <v>2498</v>
@@ -52892,7 +52861,7 @@
     </row>
     <row r="563" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
-        <v>969</v>
+        <v>561</v>
       </c>
       <c r="B563" t="s">
         <v>2501</v>
@@ -52966,7 +52935,7 @@
     </row>
     <row r="564" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
-        <v>970</v>
+        <v>562</v>
       </c>
       <c r="B564" t="s">
         <v>2504</v>
@@ -53040,7 +53009,7 @@
     </row>
     <row r="565" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
-        <v>971</v>
+        <v>563</v>
       </c>
       <c r="B565" t="s">
         <v>2508</v>
@@ -53114,7 +53083,7 @@
     </row>
     <row r="566" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
-        <v>972</v>
+        <v>564</v>
       </c>
       <c r="B566" t="s">
         <v>2512</v>
@@ -53188,7 +53157,7 @@
     </row>
     <row r="567" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
-        <v>973</v>
+        <v>565</v>
       </c>
       <c r="B567" t="s">
         <v>2516</v>
@@ -53262,7 +53231,7 @@
     </row>
     <row r="568" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
-        <v>974</v>
+        <v>566</v>
       </c>
       <c r="B568" t="s">
         <v>2520</v>
@@ -53336,7 +53305,7 @@
     </row>
     <row r="569" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
-        <v>985</v>
+        <v>567</v>
       </c>
       <c r="B569" t="s">
         <v>2525</v>
@@ -53410,7 +53379,7 @@
     </row>
     <row r="570" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
-        <v>986</v>
+        <v>568</v>
       </c>
       <c r="B570" t="s">
         <v>2530</v>
@@ -53484,7 +53453,7 @@
     </row>
     <row r="571" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
-        <v>987</v>
+        <v>569</v>
       </c>
       <c r="B571" t="s">
         <v>2535</v>
@@ -53558,7 +53527,7 @@
     </row>
     <row r="572" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
-        <v>988</v>
+        <v>570</v>
       </c>
       <c r="B572" t="s">
         <v>2540</v>
@@ -53632,7 +53601,7 @@
     </row>
     <row r="573" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
-        <v>989</v>
+        <v>571</v>
       </c>
       <c r="B573" t="s">
         <v>2545</v>
@@ -53706,7 +53675,7 @@
     </row>
     <row r="574" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
-        <v>990</v>
+        <v>572</v>
       </c>
       <c r="B574" t="s">
         <v>2550</v>
@@ -53780,7 +53749,7 @@
     </row>
     <row r="575" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
-        <v>991</v>
+        <v>573</v>
       </c>
       <c r="B575" t="s">
         <v>2553</v>
@@ -53854,7 +53823,7 @@
     </row>
     <row r="576" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
-        <v>992</v>
+        <v>574</v>
       </c>
       <c r="B576" t="s">
         <v>2554</v>
@@ -53928,7 +53897,7 @@
     </row>
     <row r="577" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
-        <v>993</v>
+        <v>575</v>
       </c>
       <c r="B577" t="s">
         <v>2560</v>
@@ -54002,7 +53971,7 @@
     </row>
     <row r="578" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
-        <v>994</v>
+        <v>576</v>
       </c>
       <c r="B578" t="s">
         <v>2563</v>
@@ -54076,7 +54045,7 @@
     </row>
     <row r="579" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
-        <v>995</v>
+        <v>577</v>
       </c>
       <c r="B579" t="s">
         <v>1643</v>
@@ -54150,7 +54119,7 @@
     </row>
     <row r="580" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
-        <v>996</v>
+        <v>578</v>
       </c>
       <c r="B580" t="s">
         <v>2571</v>
@@ -54224,7 +54193,7 @@
     </row>
     <row r="581" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
-        <v>997</v>
+        <v>579</v>
       </c>
       <c r="B581" t="s">
         <v>2576</v>
@@ -54298,7 +54267,7 @@
     </row>
     <row r="582" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
-        <v>998</v>
+        <v>580</v>
       </c>
       <c r="B582" t="s">
         <v>2581</v>
@@ -54372,7 +54341,7 @@
     </row>
     <row r="583" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
-        <v>999</v>
+        <v>581</v>
       </c>
       <c r="B583" t="s">
         <v>2586</v>
@@ -54446,7 +54415,7 @@
     </row>
     <row r="584" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
-        <v>1000</v>
+        <v>582</v>
       </c>
       <c r="B584" t="s">
         <v>2591</v>
@@ -54520,7 +54489,7 @@
     </row>
     <row r="585" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
-        <v>1001</v>
+        <v>583</v>
       </c>
       <c r="B585" t="s">
         <v>2596</v>
@@ -54594,7 +54563,7 @@
     </row>
     <row r="586" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
-        <v>1002</v>
+        <v>584</v>
       </c>
       <c r="B586" t="s">
         <v>2601</v>
@@ -54668,7 +54637,7 @@
     </row>
     <row r="587" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
-        <v>1003</v>
+        <v>585</v>
       </c>
       <c r="B587" t="s">
         <v>2606</v>
@@ -54742,7 +54711,7 @@
     </row>
     <row r="588" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
-        <v>1004</v>
+        <v>586</v>
       </c>
       <c r="B588" t="s">
         <v>2609</v>
@@ -54816,7 +54785,7 @@
     </row>
     <row r="589" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
-        <v>1005</v>
+        <v>587</v>
       </c>
       <c r="B589" t="s">
         <v>912</v>
@@ -54890,7 +54859,7 @@
     </row>
     <row r="590" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
-        <v>1009</v>
+        <v>588</v>
       </c>
       <c r="B590" t="s">
         <v>2619</v>
@@ -54964,7 +54933,7 @@
     </row>
     <row r="591" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
-        <v>1013</v>
+        <v>589</v>
       </c>
       <c r="B591" t="s">
         <v>2623</v>
@@ -55038,7 +55007,7 @@
     </row>
     <row r="592" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
-        <v>1017</v>
+        <v>590</v>
       </c>
       <c r="B592" t="s">
         <v>1661</v>
@@ -55112,7 +55081,7 @@
     </row>
     <row r="593" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
-        <v>1021</v>
+        <v>591</v>
       </c>
       <c r="B593" t="s">
         <v>2628</v>
@@ -55186,7 +55155,7 @@
     </row>
     <row r="594" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
-        <v>1025</v>
+        <v>592</v>
       </c>
       <c r="B594" t="s">
         <v>2631</v>
@@ -55260,7 +55229,7 @@
     </row>
     <row r="595" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
-        <v>1029</v>
+        <v>593</v>
       </c>
       <c r="B595" t="s">
         <v>2634</v>
@@ -55334,7 +55303,7 @@
     </row>
     <row r="596" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
-        <v>1033</v>
+        <v>594</v>
       </c>
       <c r="B596" t="s">
         <v>2639</v>
@@ -55408,7 +55377,7 @@
     </row>
     <row r="597" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
-        <v>1034</v>
+        <v>595</v>
       </c>
       <c r="B597" t="s">
         <v>2644</v>
@@ -55482,7 +55451,7 @@
     </row>
     <row r="598" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
-        <v>1035</v>
+        <v>596</v>
       </c>
       <c r="B598" t="s">
         <v>2648</v>
@@ -55556,7 +55525,7 @@
     </row>
     <row r="599" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
-        <v>1036</v>
+        <v>597</v>
       </c>
       <c r="B599" t="s">
         <v>2294</v>
@@ -55630,7 +55599,7 @@
     </row>
     <row r="600" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
-        <v>1037</v>
+        <v>598</v>
       </c>
       <c r="B600" t="s">
         <v>2654</v>
@@ -55704,7 +55673,7 @@
     </row>
     <row r="601" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
-        <v>1038</v>
+        <v>599</v>
       </c>
       <c r="B601" t="s">
         <v>2659</v>
@@ -55778,7 +55747,7 @@
     </row>
     <row r="602" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
-        <v>1039</v>
+        <v>600</v>
       </c>
       <c r="B602" t="s">
         <v>2664</v>
@@ -55852,7 +55821,7 @@
     </row>
     <row r="603" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
-        <v>1040</v>
+        <v>601</v>
       </c>
       <c r="B603" t="s">
         <v>2669</v>
@@ -55926,7 +55895,7 @@
     </row>
     <row r="604" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
-        <v>1041</v>
+        <v>602</v>
       </c>
       <c r="B604" t="s">
         <v>2672</v>
@@ -56000,7 +55969,7 @@
     </row>
     <row r="605" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
-        <v>1042</v>
+        <v>603</v>
       </c>
       <c r="B605" t="s">
         <v>2675</v>
@@ -56074,7 +56043,7 @@
     </row>
     <row r="606" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
-        <v>1043</v>
+        <v>604</v>
       </c>
       <c r="B606" t="s">
         <v>2678</v>
@@ -56148,7 +56117,7 @@
     </row>
     <row r="607" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
-        <v>1044</v>
+        <v>605</v>
       </c>
       <c r="B607" t="s">
         <v>2683</v>
@@ -56222,7 +56191,7 @@
     </row>
     <row r="608" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
-        <v>1045</v>
+        <v>606</v>
       </c>
       <c r="B608" t="s">
         <v>2687</v>
@@ -56296,7 +56265,7 @@
     </row>
     <row r="609" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
-        <v>1046</v>
+        <v>607</v>
       </c>
       <c r="B609" t="s">
         <v>1948</v>
@@ -56370,7 +56339,7 @@
     </row>
     <row r="610" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
-        <v>1047</v>
+        <v>608</v>
       </c>
       <c r="B610" t="s">
         <v>2695</v>
@@ -56444,7 +56413,7 @@
     </row>
     <row r="611" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
-        <v>1048</v>
+        <v>609</v>
       </c>
       <c r="B611" t="s">
         <v>2699</v>
@@ -56518,7 +56487,7 @@
     </row>
     <row r="612" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
-        <v>1049</v>
+        <v>610</v>
       </c>
       <c r="B612" t="s">
         <v>2704</v>
@@ -56592,7 +56561,7 @@
     </row>
     <row r="613" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
-        <v>1050</v>
+        <v>611</v>
       </c>
       <c r="B613" t="s">
         <v>2708</v>
@@ -56666,7 +56635,7 @@
     </row>
     <row r="614" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
-        <v>1051</v>
+        <v>612</v>
       </c>
       <c r="B614" t="s">
         <v>2711</v>
@@ -56740,7 +56709,7 @@
     </row>
     <row r="615" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
-        <v>1052</v>
+        <v>613</v>
       </c>
       <c r="B615" t="s">
         <v>2714</v>
@@ -56814,7 +56783,7 @@
     </row>
     <row r="616" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
-        <v>1053</v>
+        <v>614</v>
       </c>
       <c r="B616" t="s">
         <v>2719</v>
@@ -56888,7 +56857,7 @@
     </row>
     <row r="617" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
-        <v>1054</v>
+        <v>615</v>
       </c>
       <c r="B617" t="s">
         <v>2722</v>
@@ -56962,7 +56931,7 @@
     </row>
     <row r="618" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
-        <v>1055</v>
+        <v>616</v>
       </c>
       <c r="B618" t="s">
         <v>2726</v>
@@ -57036,7 +57005,7 @@
     </row>
     <row r="619" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
-        <v>1056</v>
+        <v>617</v>
       </c>
       <c r="B619" t="s">
         <v>2729</v>
@@ -57110,7 +57079,7 @@
     </row>
     <row r="620" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
-        <v>1057</v>
+        <v>618</v>
       </c>
       <c r="B620" t="s">
         <v>2734</v>
@@ -57184,7 +57153,7 @@
     </row>
     <row r="621" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A621" s="1">
-        <v>1058</v>
+        <v>619</v>
       </c>
       <c r="B621" t="s">
         <v>2737</v>
@@ -57258,7 +57227,7 @@
     </row>
     <row r="622" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A622" s="1">
-        <v>1059</v>
+        <v>620</v>
       </c>
       <c r="B622" t="s">
         <v>2741</v>
@@ -57332,7 +57301,7 @@
     </row>
     <row r="623" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
-        <v>1060</v>
+        <v>621</v>
       </c>
       <c r="B623" t="s">
         <v>2744</v>
@@ -57406,7 +57375,7 @@
     </row>
     <row r="624" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A624" s="1">
-        <v>1061</v>
+        <v>622</v>
       </c>
       <c r="B624" t="s">
         <v>2747</v>
@@ -57480,7 +57449,7 @@
     </row>
     <row r="625" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
-        <v>1062</v>
+        <v>623</v>
       </c>
       <c r="B625" t="s">
         <v>2752</v>
@@ -57554,7 +57523,7 @@
     </row>
     <row r="626" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A626" s="1">
-        <v>1063</v>
+        <v>624</v>
       </c>
       <c r="B626" t="s">
         <v>2757</v>
@@ -57628,7 +57597,7 @@
     </row>
     <row r="627" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
-        <v>1064</v>
+        <v>625</v>
       </c>
       <c r="B627" t="s">
         <v>2762</v>
@@ -57702,7 +57671,7 @@
     </row>
     <row r="628" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
-        <v>1065</v>
+        <v>626</v>
       </c>
       <c r="B628" t="s">
         <v>2765</v>
@@ -57776,7 +57745,7 @@
     </row>
     <row r="629" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A629" s="1">
-        <v>1066</v>
+        <v>627</v>
       </c>
       <c r="B629" t="s">
         <v>2770</v>
@@ -57850,7 +57819,7 @@
     </row>
     <row r="630" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
-        <v>1067</v>
+        <v>628</v>
       </c>
       <c r="B630" t="s">
         <v>2775</v>
@@ -57924,7 +57893,7 @@
     </row>
     <row r="631" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A631" s="1">
-        <v>1068</v>
+        <v>629</v>
       </c>
       <c r="B631" t="s">
         <v>2780</v>
@@ -57998,7 +57967,7 @@
     </row>
     <row r="632" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A632" s="1">
-        <v>1069</v>
+        <v>630</v>
       </c>
       <c r="B632" t="s">
         <v>2783</v>
@@ -58072,7 +58041,7 @@
     </row>
     <row r="633" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A633" s="1">
-        <v>1070</v>
+        <v>631</v>
       </c>
       <c r="B633" t="s">
         <v>2788</v>
@@ -58146,7 +58115,7 @@
     </row>
     <row r="634" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A634" s="1">
-        <v>1071</v>
+        <v>632</v>
       </c>
       <c r="B634" t="s">
         <v>2792</v>
@@ -58220,7 +58189,7 @@
     </row>
     <row r="635" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A635" s="1">
-        <v>1072</v>
+        <v>633</v>
       </c>
       <c r="B635" t="s">
         <v>2796</v>
@@ -58294,7 +58263,7 @@
     </row>
     <row r="636" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A636" s="1">
-        <v>1073</v>
+        <v>634</v>
       </c>
       <c r="B636" t="s">
         <v>2800</v>
@@ -58368,7 +58337,7 @@
     </row>
     <row r="637" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A637" s="1">
-        <v>1074</v>
+        <v>635</v>
       </c>
       <c r="B637" t="s">
         <v>2805</v>
@@ -58442,7 +58411,7 @@
     </row>
     <row r="638" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A638" s="1">
-        <v>1075</v>
+        <v>636</v>
       </c>
       <c r="B638" t="s">
         <v>2809</v>
@@ -58516,7 +58485,7 @@
     </row>
     <row r="639" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A639" s="1">
-        <v>1076</v>
+        <v>637</v>
       </c>
       <c r="B639" t="s">
         <v>2813</v>
@@ -58590,7 +58559,7 @@
     </row>
     <row r="640" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A640" s="1">
-        <v>1077</v>
+        <v>638</v>
       </c>
       <c r="B640" t="s">
         <v>2818</v>
@@ -58664,7 +58633,7 @@
     </row>
     <row r="641" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A641" s="1">
-        <v>1078</v>
+        <v>639</v>
       </c>
       <c r="B641" t="s">
         <v>2822</v>
@@ -58738,7 +58707,7 @@
     </row>
     <row r="642" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A642" s="1">
-        <v>1079</v>
+        <v>640</v>
       </c>
       <c r="B642" t="s">
         <v>2825</v>
@@ -58812,7 +58781,7 @@
     </row>
     <row r="643" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A643" s="1">
-        <v>1080</v>
+        <v>641</v>
       </c>
       <c r="B643" t="s">
         <v>2830</v>
@@ -58886,7 +58855,7 @@
     </row>
     <row r="644" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A644" s="1">
-        <v>1081</v>
+        <v>642</v>
       </c>
       <c r="B644" t="s">
         <v>2833</v>
@@ -58960,7 +58929,7 @@
     </row>
     <row r="645" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A645" s="1">
-        <v>1082</v>
+        <v>643</v>
       </c>
       <c r="B645" t="s">
         <v>2839</v>
@@ -59034,7 +59003,7 @@
     </row>
     <row r="646" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A646" s="1">
-        <v>1083</v>
+        <v>644</v>
       </c>
       <c r="B646" t="s">
         <v>2844</v>
@@ -59108,7 +59077,7 @@
     </row>
     <row r="647" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A647" s="1">
-        <v>1084</v>
+        <v>645</v>
       </c>
       <c r="B647" t="s">
         <v>2849</v>
@@ -59182,7 +59151,7 @@
     </row>
     <row r="648" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A648" s="1">
-        <v>1085</v>
+        <v>646</v>
       </c>
       <c r="B648" t="s">
         <v>2854</v>
@@ -59256,7 +59225,7 @@
     </row>
     <row r="649" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A649" s="1">
-        <v>1086</v>
+        <v>647</v>
       </c>
       <c r="B649" t="s">
         <v>2859</v>
@@ -59330,7 +59299,7 @@
     </row>
     <row r="650" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A650" s="1">
-        <v>1087</v>
+        <v>648</v>
       </c>
       <c r="B650" t="s">
         <v>2864</v>
@@ -59404,7 +59373,7 @@
     </row>
     <row r="651" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A651" s="1">
-        <v>1088</v>
+        <v>649</v>
       </c>
       <c r="B651" t="s">
         <v>2869</v>
@@ -59478,7 +59447,7 @@
     </row>
     <row r="652" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A652" s="1">
-        <v>1089</v>
+        <v>650</v>
       </c>
       <c r="B652" t="s">
         <v>2874</v>
@@ -59552,7 +59521,7 @@
     </row>
     <row r="653" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A653" s="1">
-        <v>1090</v>
+        <v>651</v>
       </c>
       <c r="B653" t="s">
         <v>2877</v>
@@ -59626,7 +59595,7 @@
     </row>
     <row r="654" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A654" s="1">
-        <v>1091</v>
+        <v>652</v>
       </c>
       <c r="B654" t="s">
         <v>2880</v>
@@ -59700,7 +59669,7 @@
     </row>
     <row r="655" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A655" s="1">
-        <v>1095</v>
+        <v>653</v>
       </c>
       <c r="B655" t="s">
         <v>2885</v>
@@ -59774,7 +59743,7 @@
     </row>
     <row r="656" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A656" s="1">
-        <v>1099</v>
+        <v>654</v>
       </c>
       <c r="B656" t="s">
         <v>2889</v>
@@ -59848,7 +59817,7 @@
     </row>
     <row r="657" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A657" s="1">
-        <v>1103</v>
+        <v>655</v>
       </c>
       <c r="B657" t="s">
         <v>2893</v>
@@ -59922,7 +59891,7 @@
     </row>
     <row r="658" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A658" s="1">
-        <v>1107</v>
+        <v>656</v>
       </c>
       <c r="B658" t="s">
         <v>2896</v>
@@ -59996,7 +59965,7 @@
     </row>
     <row r="659" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A659" s="1">
-        <v>1111</v>
+        <v>657</v>
       </c>
       <c r="B659" t="s">
         <v>2881</v>
@@ -60070,7 +60039,7 @@
     </row>
     <row r="660" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A660" s="1">
-        <v>1115</v>
+        <v>658</v>
       </c>
       <c r="B660" t="s">
         <v>2901</v>
@@ -60144,7 +60113,7 @@
     </row>
     <row r="661" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A661" s="1">
-        <v>1119</v>
+        <v>659</v>
       </c>
       <c r="B661" t="s">
         <v>2904</v>
@@ -60218,7 +60187,7 @@
     </row>
     <row r="662" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A662" s="1">
-        <v>1123</v>
+        <v>660</v>
       </c>
       <c r="B662" t="s">
         <v>2400</v>
@@ -60292,7 +60261,7 @@
     </row>
     <row r="663" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A663" s="1">
-        <v>1124</v>
+        <v>661</v>
       </c>
       <c r="B663" t="s">
         <v>2913</v>
@@ -60366,7 +60335,7 @@
     </row>
     <row r="664" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A664" s="1">
-        <v>1125</v>
+        <v>662</v>
       </c>
       <c r="B664" t="s">
         <v>2918</v>
@@ -60440,7 +60409,7 @@
     </row>
     <row r="665" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A665" s="1">
-        <v>1126</v>
+        <v>663</v>
       </c>
       <c r="B665" t="s">
         <v>2922</v>
@@ -60514,7 +60483,7 @@
     </row>
     <row r="666" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A666" s="1">
-        <v>1127</v>
+        <v>664</v>
       </c>
       <c r="B666" t="s">
         <v>2926</v>
@@ -60588,7 +60557,7 @@
     </row>
     <row r="667" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A667" s="1">
-        <v>1128</v>
+        <v>665</v>
       </c>
       <c r="B667" t="s">
         <v>2930</v>
@@ -60662,7 +60631,7 @@
     </row>
     <row r="668" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A668" s="1">
-        <v>1129</v>
+        <v>666</v>
       </c>
       <c r="B668" t="s">
         <v>2935</v>
@@ -60736,7 +60705,7 @@
     </row>
     <row r="669" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A669" s="1">
-        <v>1130</v>
+        <v>667</v>
       </c>
       <c r="B669" t="s">
         <v>2940</v>
@@ -60810,7 +60779,7 @@
     </row>
     <row r="670" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A670" s="1">
-        <v>1131</v>
+        <v>668</v>
       </c>
       <c r="B670" t="s">
         <v>2944</v>
@@ -60884,7 +60853,7 @@
     </row>
     <row r="671" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A671" s="1">
-        <v>1132</v>
+        <v>669</v>
       </c>
       <c r="B671" t="s">
         <v>2947</v>
@@ -60958,7 +60927,7 @@
     </row>
     <row r="672" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A672" s="1">
-        <v>1133</v>
+        <v>670</v>
       </c>
       <c r="B672" t="s">
         <v>2952</v>
@@ -61032,7 +61001,7 @@
     </row>
     <row r="673" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A673" s="1">
-        <v>1134</v>
+        <v>671</v>
       </c>
       <c r="B673" t="s">
         <v>2957</v>
@@ -61106,7 +61075,7 @@
     </row>
     <row r="674" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A674" s="1">
-        <v>1135</v>
+        <v>672</v>
       </c>
       <c r="B674" t="s">
         <v>2962</v>
@@ -61180,7 +61149,7 @@
     </row>
     <row r="675" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A675" s="1">
-        <v>1136</v>
+        <v>673</v>
       </c>
       <c r="B675" t="s">
         <v>2965</v>
@@ -61254,7 +61223,7 @@
     </row>
     <row r="676" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A676" s="1">
-        <v>1137</v>
+        <v>674</v>
       </c>
       <c r="B676" t="s">
         <v>2970</v>
@@ -61328,7 +61297,7 @@
     </row>
     <row r="677" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A677" s="1">
-        <v>1138</v>
+        <v>675</v>
       </c>
       <c r="B677" t="s">
         <v>2975</v>
@@ -61402,7 +61371,7 @@
     </row>
     <row r="678" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A678" s="1">
-        <v>1139</v>
+        <v>676</v>
       </c>
       <c r="B678" t="s">
         <v>2980</v>
@@ -61476,7 +61445,7 @@
     </row>
     <row r="679" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A679" s="1">
-        <v>1140</v>
+        <v>677</v>
       </c>
       <c r="B679" t="s">
         <v>2985</v>
@@ -61550,7 +61519,7 @@
     </row>
     <row r="680" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A680" s="1">
-        <v>1141</v>
+        <v>678</v>
       </c>
       <c r="B680" t="s">
         <v>2988</v>
@@ -61624,7 +61593,7 @@
     </row>
     <row r="681" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A681" s="1">
-        <v>1142</v>
+        <v>679</v>
       </c>
       <c r="B681" t="s">
         <v>2991</v>
@@ -61698,7 +61667,7 @@
     </row>
     <row r="682" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A682" s="1">
-        <v>1143</v>
+        <v>680</v>
       </c>
       <c r="B682" t="s">
         <v>2994</v>
@@ -61772,7 +61741,7 @@
     </row>
     <row r="683" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A683" s="1">
-        <v>1153</v>
+        <v>681</v>
       </c>
       <c r="B683" t="s">
         <v>2999</v>
@@ -61846,7 +61815,7 @@
     </row>
     <row r="684" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A684" s="1">
-        <v>1154</v>
+        <v>682</v>
       </c>
       <c r="B684" t="s">
         <v>3004</v>
@@ -61920,7 +61889,7 @@
     </row>
     <row r="685" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A685" s="1">
-        <v>1155</v>
+        <v>683</v>
       </c>
       <c r="B685" t="s">
         <v>3009</v>
@@ -61994,7 +61963,7 @@
     </row>
     <row r="686" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A686" s="1">
-        <v>1156</v>
+        <v>684</v>
       </c>
       <c r="B686" t="s">
         <v>3012</v>
@@ -62068,7 +62037,7 @@
     </row>
     <row r="687" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A687" s="1">
-        <v>1157</v>
+        <v>685</v>
       </c>
       <c r="B687" t="s">
         <v>3015</v>
@@ -62142,7 +62111,7 @@
     </row>
     <row r="688" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A688" s="1">
-        <v>1158</v>
+        <v>686</v>
       </c>
       <c r="B688" t="s">
         <v>3020</v>
@@ -62216,7 +62185,7 @@
     </row>
     <row r="689" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A689" s="1">
-        <v>1159</v>
+        <v>687</v>
       </c>
       <c r="B689" t="s">
         <v>3023</v>
@@ -62290,7 +62259,7 @@
     </row>
     <row r="690" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A690" s="1">
-        <v>1180</v>
+        <v>688</v>
       </c>
       <c r="B690" t="s">
         <v>3026</v>
@@ -62364,7 +62333,7 @@
     </row>
     <row r="691" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A691" s="1">
-        <v>1181</v>
+        <v>689</v>
       </c>
       <c r="B691" t="s">
         <v>3032</v>
@@ -62438,7 +62407,7 @@
     </row>
     <row r="692" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A692" s="1">
-        <v>1182</v>
+        <v>690</v>
       </c>
       <c r="B692" t="s">
         <v>3035</v>
@@ -62512,7 +62481,7 @@
     </row>
     <row r="693" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A693" s="1">
-        <v>1183</v>
+        <v>691</v>
       </c>
       <c r="B693" t="s">
         <v>3040</v>
@@ -62586,7 +62555,7 @@
     </row>
     <row r="694" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A694" s="1">
-        <v>1184</v>
+        <v>692</v>
       </c>
       <c r="B694" t="s">
         <v>3045</v>
@@ -62660,7 +62629,7 @@
     </row>
     <row r="695" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A695" s="1">
-        <v>1185</v>
+        <v>693</v>
       </c>
       <c r="B695" t="s">
         <v>3050</v>
@@ -62734,7 +62703,7 @@
     </row>
     <row r="696" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A696" s="1">
-        <v>1186</v>
+        <v>694</v>
       </c>
       <c r="B696" t="s">
         <v>3055</v>
@@ -62808,7 +62777,7 @@
     </row>
     <row r="697" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A697" s="1">
-        <v>1187</v>
+        <v>695</v>
       </c>
       <c r="B697" t="s">
         <v>3060</v>
@@ -62882,7 +62851,7 @@
     </row>
     <row r="698" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A698" s="1">
-        <v>1188</v>
+        <v>696</v>
       </c>
       <c r="B698" t="s">
         <v>3063</v>
@@ -62956,7 +62925,7 @@
     </row>
     <row r="699" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A699" s="1">
-        <v>1189</v>
+        <v>697</v>
       </c>
       <c r="B699" t="s">
         <v>3067</v>
@@ -63030,7 +62999,7 @@
     </row>
     <row r="700" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A700" s="1">
-        <v>1190</v>
+        <v>698</v>
       </c>
       <c r="B700" t="s">
         <v>3070</v>
@@ -63104,7 +63073,7 @@
     </row>
     <row r="701" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A701" s="1">
-        <v>1191</v>
+        <v>699</v>
       </c>
       <c r="B701" t="s">
         <v>3076</v>
@@ -63178,7 +63147,7 @@
     </row>
     <row r="702" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A702" s="1">
-        <v>1192</v>
+        <v>700</v>
       </c>
       <c r="B702" t="s">
         <v>3081</v>
@@ -63252,7 +63221,7 @@
     </row>
     <row r="703" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A703" s="1">
-        <v>1193</v>
+        <v>701</v>
       </c>
       <c r="B703" t="s">
         <v>3084</v>
@@ -63326,7 +63295,7 @@
     </row>
     <row r="704" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A704" s="1">
-        <v>1194</v>
+        <v>702</v>
       </c>
       <c r="B704" t="s">
         <v>3087</v>
@@ -63400,7 +63369,7 @@
     </row>
     <row r="705" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A705" s="1">
-        <v>1195</v>
+        <v>703</v>
       </c>
       <c r="B705" t="s">
         <v>3090</v>
@@ -63474,7 +63443,7 @@
     </row>
     <row r="706" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A706" s="1">
-        <v>1196</v>
+        <v>704</v>
       </c>
       <c r="B706" t="s">
         <v>3094</v>
@@ -63548,7 +63517,7 @@
     </row>
     <row r="707" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A707" s="1">
-        <v>1197</v>
+        <v>705</v>
       </c>
       <c r="B707" t="s">
         <v>3099</v>
@@ -63622,7 +63591,7 @@
     </row>
     <row r="708" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A708" s="1">
-        <v>1198</v>
+        <v>706</v>
       </c>
       <c r="B708" t="s">
         <v>3102</v>
@@ -63696,7 +63665,7 @@
     </row>
     <row r="709" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A709" s="1">
-        <v>1199</v>
+        <v>707</v>
       </c>
       <c r="B709" t="s">
         <v>3095</v>
@@ -63770,7 +63739,7 @@
     </row>
     <row r="710" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A710" s="1">
-        <v>1208</v>
+        <v>708</v>
       </c>
       <c r="B710" t="s">
         <v>3107</v>
@@ -63844,7 +63813,7 @@
     </row>
     <row r="711" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A711" s="1">
-        <v>1209</v>
+        <v>709</v>
       </c>
       <c r="B711" t="s">
         <v>3112</v>
@@ -63918,7 +63887,7 @@
     </row>
     <row r="712" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A712" s="1">
-        <v>1210</v>
+        <v>710</v>
       </c>
       <c r="B712" t="s">
         <v>3117</v>
@@ -63992,7 +63961,7 @@
     </row>
     <row r="713" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A713" s="1">
-        <v>1211</v>
+        <v>711</v>
       </c>
       <c r="B713" t="s">
         <v>3121</v>
@@ -64066,7 +64035,7 @@
     </row>
     <row r="714" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A714" s="1">
-        <v>1212</v>
+        <v>712</v>
       </c>
       <c r="B714" t="s">
         <v>3126</v>
@@ -64140,7 +64109,7 @@
     </row>
     <row r="715" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A715" s="1">
-        <v>1213</v>
+        <v>713</v>
       </c>
       <c r="B715" t="s">
         <v>3131</v>
@@ -64214,7 +64183,7 @@
     </row>
     <row r="716" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A716" s="1">
-        <v>1214</v>
+        <v>714</v>
       </c>
       <c r="B716" t="s">
         <v>3136</v>
@@ -64288,7 +64257,7 @@
     </row>
     <row r="717" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A717" s="1">
-        <v>1215</v>
+        <v>715</v>
       </c>
       <c r="B717" t="s">
         <v>3141</v>
@@ -64362,7 +64331,7 @@
     </row>
     <row r="718" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A718" s="1">
-        <v>1216</v>
+        <v>716</v>
       </c>
       <c r="B718" t="s">
         <v>3145</v>
@@ -64436,7 +64405,7 @@
     </row>
     <row r="719" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A719" s="1">
-        <v>1217</v>
+        <v>717</v>
       </c>
       <c r="B719" t="s">
         <v>3150</v>
@@ -64510,7 +64479,7 @@
     </row>
     <row r="720" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A720" s="1">
-        <v>1218</v>
+        <v>718</v>
       </c>
       <c r="B720" t="s">
         <v>3155</v>
@@ -64584,7 +64553,7 @@
     </row>
     <row r="721" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A721" s="1">
-        <v>1219</v>
+        <v>719</v>
       </c>
       <c r="B721" t="s">
         <v>3159</v>
@@ -64658,7 +64627,7 @@
     </row>
     <row r="722" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A722" s="1">
-        <v>1220</v>
+        <v>720</v>
       </c>
       <c r="B722" t="s">
         <v>3164</v>
@@ -64732,7 +64701,7 @@
     </row>
     <row r="723" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A723" s="1">
-        <v>1221</v>
+        <v>721</v>
       </c>
       <c r="B723" t="s">
         <v>3169</v>
@@ -64806,7 +64775,7 @@
     </row>
     <row r="724" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A724" s="1">
-        <v>1222</v>
+        <v>722</v>
       </c>
       <c r="B724" t="s">
         <v>3174</v>
@@ -64880,7 +64849,7 @@
     </row>
     <row r="725" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A725" s="1">
-        <v>1223</v>
+        <v>723</v>
       </c>
       <c r="B725" t="s">
         <v>3177</v>
@@ -64954,7 +64923,7 @@
     </row>
     <row r="726" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A726" s="1">
-        <v>1224</v>
+        <v>724</v>
       </c>
       <c r="B726" t="s">
         <v>3180</v>
@@ -65028,7 +64997,7 @@
     </row>
     <row r="727" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A727" s="1">
-        <v>1225</v>
+        <v>725</v>
       </c>
       <c r="B727" t="s">
         <v>3185</v>
@@ -65102,7 +65071,7 @@
     </row>
     <row r="728" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A728" s="1">
-        <v>1226</v>
+        <v>726</v>
       </c>
       <c r="B728" t="s">
         <v>3191</v>
@@ -65176,7 +65145,7 @@
     </row>
     <row r="729" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A729" s="1">
-        <v>1227</v>
+        <v>727</v>
       </c>
       <c r="B729" t="s">
         <v>3195</v>
@@ -65250,7 +65219,7 @@
     </row>
     <row r="730" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A730" s="1">
-        <v>1228</v>
+        <v>728</v>
       </c>
       <c r="B730" t="s">
         <v>3199</v>
@@ -65324,7 +65293,7 @@
     </row>
     <row r="731" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A731" s="1">
-        <v>1229</v>
+        <v>729</v>
       </c>
       <c r="B731" t="s">
         <v>3204</v>
@@ -65398,7 +65367,7 @@
     </row>
     <row r="732" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A732" s="1">
-        <v>1230</v>
+        <v>730</v>
       </c>
       <c r="B732" t="s">
         <v>3207</v>
@@ -65472,7 +65441,7 @@
     </row>
     <row r="733" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A733" s="1">
-        <v>1231</v>
+        <v>731</v>
       </c>
       <c r="B733" t="s">
         <v>3212</v>
@@ -65546,7 +65515,7 @@
     </row>
     <row r="734" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A734" s="1">
-        <v>1232</v>
+        <v>732</v>
       </c>
       <c r="B734" t="s">
         <v>3216</v>
@@ -65620,7 +65589,7 @@
     </row>
     <row r="735" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A735" s="1">
-        <v>1233</v>
+        <v>733</v>
       </c>
       <c r="B735" t="s">
         <v>164</v>
@@ -65694,7 +65663,7 @@
     </row>
     <row r="736" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A736" s="1">
-        <v>1234</v>
+        <v>734</v>
       </c>
       <c r="B736" t="s">
         <v>3221</v>
@@ -65768,7 +65737,7 @@
     </row>
     <row r="737" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A737" s="1">
-        <v>1235</v>
+        <v>735</v>
       </c>
       <c r="B737" t="s">
         <v>3224</v>
@@ -65842,7 +65811,7 @@
     </row>
     <row r="738" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A738" s="1">
-        <v>1236</v>
+        <v>736</v>
       </c>
       <c r="B738" t="s">
         <v>3230</v>
@@ -65916,7 +65885,7 @@
     </row>
     <row r="739" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A739" s="1">
-        <v>1237</v>
+        <v>737</v>
       </c>
       <c r="B739" t="s">
         <v>3235</v>
@@ -65990,7 +65959,7 @@
     </row>
     <row r="740" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A740" s="1">
-        <v>1238</v>
+        <v>738</v>
       </c>
       <c r="B740" t="s">
         <v>3240</v>
@@ -66064,7 +66033,7 @@
     </row>
     <row r="741" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A741" s="1">
-        <v>1239</v>
+        <v>739</v>
       </c>
       <c r="B741" t="s">
         <v>307</v>
@@ -66138,7 +66107,7 @@
     </row>
     <row r="742" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A742" s="1">
-        <v>1240</v>
+        <v>740</v>
       </c>
       <c r="B742" t="s">
         <v>3249</v>
@@ -66212,7 +66181,7 @@
     </row>
     <row r="743" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A743" s="1">
-        <v>1241</v>
+        <v>741</v>
       </c>
       <c r="B743" t="s">
         <v>3254</v>
@@ -66286,7 +66255,7 @@
     </row>
     <row r="744" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A744" s="1">
-        <v>1242</v>
+        <v>742</v>
       </c>
       <c r="B744" t="s">
         <v>3257</v>
@@ -66360,7 +66329,7 @@
     </row>
     <row r="745" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A745" s="1">
-        <v>1243</v>
+        <v>743</v>
       </c>
       <c r="B745" t="s">
         <v>3262</v>
@@ -66434,7 +66403,7 @@
     </row>
     <row r="746" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A746" s="1">
-        <v>1244</v>
+        <v>744</v>
       </c>
       <c r="B746" t="s">
         <v>3265</v>
@@ -66508,7 +66477,7 @@
     </row>
     <row r="747" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A747" s="1">
-        <v>1245</v>
+        <v>745</v>
       </c>
       <c r="B747" t="s">
         <v>3268</v>
@@ -66582,7 +66551,7 @@
     </row>
     <row r="748" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A748" s="1">
-        <v>1246</v>
+        <v>746</v>
       </c>
       <c r="B748" t="s">
         <v>3273</v>
@@ -66656,7 +66625,7 @@
     </row>
     <row r="749" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A749" s="1">
-        <v>1247</v>
+        <v>747</v>
       </c>
       <c r="B749" t="s">
         <v>3276</v>
@@ -66730,7 +66699,7 @@
     </row>
     <row r="750" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A750" s="1">
-        <v>1248</v>
+        <v>748</v>
       </c>
       <c r="B750" t="s">
         <v>3281</v>
@@ -66804,7 +66773,7 @@
     </row>
     <row r="751" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A751" s="1">
-        <v>1249</v>
+        <v>749</v>
       </c>
       <c r="B751" t="s">
         <v>3285</v>
@@ -66878,7 +66847,7 @@
     </row>
     <row r="752" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A752" s="1">
-        <v>1250</v>
+        <v>750</v>
       </c>
       <c r="B752" t="s">
         <v>3288</v>
@@ -66952,7 +66921,7 @@
     </row>
     <row r="753" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A753" s="1">
-        <v>1251</v>
+        <v>751</v>
       </c>
       <c r="B753" t="s">
         <v>3293</v>
@@ -67026,7 +66995,7 @@
     </row>
     <row r="754" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A754" s="1">
-        <v>1252</v>
+        <v>752</v>
       </c>
       <c r="B754" t="s">
         <v>3296</v>
@@ -67100,7 +67069,7 @@
     </row>
     <row r="755" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A755" s="1">
-        <v>1254</v>
+        <v>753</v>
       </c>
       <c r="B755" t="s">
         <v>3300</v>
@@ -67174,7 +67143,7 @@
     </row>
     <row r="756" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A756" s="1">
-        <v>1285</v>
+        <v>754</v>
       </c>
       <c r="B756" t="s">
         <v>3303</v>
@@ -67248,7 +67217,7 @@
     </row>
     <row r="757" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A757" s="1">
-        <v>1289</v>
+        <v>755</v>
       </c>
       <c r="B757" t="s">
         <v>3309</v>
@@ -67322,7 +67291,7 @@
     </row>
     <row r="758" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A758" s="1">
-        <v>1293</v>
+        <v>756</v>
       </c>
       <c r="B758" t="s">
         <v>3314</v>
@@ -67396,7 +67365,7 @@
     </row>
     <row r="759" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A759" s="1">
-        <v>1297</v>
+        <v>757</v>
       </c>
       <c r="B759" t="s">
         <v>3317</v>
@@ -67470,7 +67439,7 @@
     </row>
     <row r="760" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A760" s="1">
-        <v>1301</v>
+        <v>758</v>
       </c>
       <c r="B760" t="s">
         <v>3322</v>
@@ -67544,7 +67513,7 @@
     </row>
     <row r="761" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A761" s="1">
-        <v>1305</v>
+        <v>759</v>
       </c>
       <c r="B761" t="s">
         <v>3327</v>
@@ -67618,7 +67587,7 @@
     </row>
     <row r="762" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A762" s="1">
-        <v>1309</v>
+        <v>760</v>
       </c>
       <c r="B762" t="s">
         <v>3332</v>
@@ -67692,7 +67661,7 @@
     </row>
     <row r="763" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A763" s="1">
-        <v>1313</v>
+        <v>761</v>
       </c>
       <c r="B763" t="s">
         <v>3336</v>
@@ -67766,7 +67735,7 @@
     </row>
     <row r="764" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A764" s="1">
-        <v>1317</v>
+        <v>762</v>
       </c>
       <c r="B764" t="s">
         <v>3340</v>
@@ -67840,7 +67809,7 @@
     </row>
     <row r="765" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A765" s="1">
-        <v>1321</v>
+        <v>763</v>
       </c>
       <c r="B765" t="s">
         <v>3345</v>
@@ -67914,7 +67883,7 @@
     </row>
     <row r="766" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A766" s="1">
-        <v>1325</v>
+        <v>764</v>
       </c>
       <c r="B766" t="s">
         <v>3348</v>
@@ -67988,7 +67957,7 @@
     </row>
     <row r="767" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A767" s="1">
-        <v>1326</v>
+        <v>765</v>
       </c>
       <c r="B767" t="s">
         <v>3354</v>
@@ -68062,7 +68031,7 @@
     </row>
     <row r="768" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A768" s="1">
-        <v>1327</v>
+        <v>766</v>
       </c>
       <c r="B768" t="s">
         <v>3359</v>
@@ -68136,7 +68105,7 @@
     </row>
     <row r="769" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A769" s="1">
-        <v>1328</v>
+        <v>767</v>
       </c>
       <c r="B769" t="s">
         <v>3364</v>
@@ -68210,7 +68179,7 @@
     </row>
     <row r="770" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A770" s="1">
-        <v>1329</v>
+        <v>768</v>
       </c>
       <c r="B770" t="s">
         <v>3369</v>
@@ -68284,7 +68253,7 @@
     </row>
     <row r="771" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A771" s="1">
-        <v>1330</v>
+        <v>769</v>
       </c>
       <c r="B771" t="s">
         <v>3374</v>
@@ -68358,7 +68327,7 @@
     </row>
     <row r="772" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A772" s="1">
-        <v>1331</v>
+        <v>770</v>
       </c>
       <c r="B772" t="s">
         <v>3379</v>
@@ -68432,7 +68401,7 @@
     </row>
     <row r="773" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A773" s="1">
-        <v>1332</v>
+        <v>771</v>
       </c>
       <c r="B773" t="s">
         <v>3382</v>
@@ -68506,7 +68475,7 @@
     </row>
     <row r="774" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A774" s="1">
-        <v>1333</v>
+        <v>772</v>
       </c>
       <c r="B774" t="s">
         <v>3387</v>
@@ -68580,7 +68549,7 @@
     </row>
     <row r="775" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A775" s="1">
-        <v>1334</v>
+        <v>773</v>
       </c>
       <c r="B775" t="s">
         <v>3391</v>
@@ -68654,7 +68623,7 @@
     </row>
     <row r="776" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A776" s="1">
-        <v>1355</v>
+        <v>774</v>
       </c>
       <c r="B776" t="s">
         <v>3395</v>
@@ -68728,7 +68697,7 @@
     </row>
     <row r="777" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A777" s="1">
-        <v>1356</v>
+        <v>775</v>
       </c>
       <c r="B777" t="s">
         <v>3400</v>
@@ -68802,7 +68771,7 @@
     </row>
     <row r="778" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A778" s="1">
-        <v>1357</v>
+        <v>776</v>
       </c>
       <c r="B778" t="s">
         <v>3405</v>
@@ -68876,7 +68845,7 @@
     </row>
     <row r="779" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A779" s="1">
-        <v>1358</v>
+        <v>777</v>
       </c>
       <c r="B779" t="s">
         <v>3408</v>
@@ -68950,7 +68919,7 @@
     </row>
     <row r="780" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A780" s="1">
-        <v>1359</v>
+        <v>778</v>
       </c>
       <c r="B780" t="s">
         <v>3413</v>
@@ -69024,7 +68993,7 @@
     </row>
     <row r="781" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A781" s="1">
-        <v>1360</v>
+        <v>779</v>
       </c>
       <c r="B781" t="s">
         <v>3416</v>
@@ -69098,7 +69067,7 @@
     </row>
     <row r="782" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A782" s="1">
-        <v>1361</v>
+        <v>780</v>
       </c>
       <c r="B782" t="s">
         <v>3421</v>
@@ -69172,7 +69141,7 @@
     </row>
     <row r="783" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A783" s="1">
-        <v>1362</v>
+        <v>781</v>
       </c>
       <c r="B783" t="s">
         <v>3426</v>
@@ -69246,7 +69215,7 @@
     </row>
     <row r="784" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A784" s="1">
-        <v>1363</v>
+        <v>782</v>
       </c>
       <c r="B784" t="s">
         <v>3429</v>
@@ -69320,7 +69289,7 @@
     </row>
     <row r="785" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A785" s="1">
-        <v>1364</v>
+        <v>783</v>
       </c>
       <c r="B785" t="s">
         <v>3432</v>
@@ -69394,7 +69363,7 @@
     </row>
     <row r="786" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A786" s="1">
-        <v>1365</v>
+        <v>784</v>
       </c>
       <c r="B786" t="s">
         <v>3435</v>
@@ -69468,7 +69437,7 @@
     </row>
     <row r="787" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A787" s="1">
-        <v>1366</v>
+        <v>785</v>
       </c>
       <c r="B787" t="s">
         <v>3441</v>
@@ -69542,7 +69511,7 @@
     </row>
     <row r="788" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A788" s="1">
-        <v>1367</v>
+        <v>786</v>
       </c>
       <c r="B788" t="s">
         <v>3446</v>
@@ -69616,7 +69585,7 @@
     </row>
     <row r="789" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A789" s="1">
-        <v>1368</v>
+        <v>787</v>
       </c>
       <c r="B789" t="s">
         <v>3450</v>
@@ -69690,7 +69659,7 @@
     </row>
     <row r="790" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A790" s="1">
-        <v>1369</v>
+        <v>788</v>
       </c>
       <c r="B790" t="s">
         <v>3453</v>
@@ -69764,7 +69733,7 @@
     </row>
     <row r="791" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A791" s="1">
-        <v>1370</v>
+        <v>789</v>
       </c>
       <c r="B791" t="s">
         <v>3458</v>
@@ -69838,7 +69807,7 @@
     </row>
     <row r="792" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A792" s="1">
-        <v>1371</v>
+        <v>790</v>
       </c>
       <c r="B792" t="s">
         <v>3462</v>
@@ -69912,7 +69881,7 @@
     </row>
     <row r="793" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A793" s="1">
-        <v>1372</v>
+        <v>791</v>
       </c>
       <c r="B793" t="s">
         <v>3467</v>
@@ -69986,7 +69955,7 @@
     </row>
     <row r="794" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A794" s="1">
-        <v>1373</v>
+        <v>792</v>
       </c>
       <c r="B794" t="s">
         <v>3470</v>
@@ -70060,7 +70029,7 @@
     </row>
     <row r="795" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A795" s="1">
-        <v>1374</v>
+        <v>793</v>
       </c>
       <c r="B795" t="s">
         <v>3473</v>
@@ -70134,7 +70103,7 @@
     </row>
     <row r="796" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A796" s="1">
-        <v>1385</v>
+        <v>794</v>
       </c>
       <c r="B796" t="s">
         <v>3478</v>
@@ -70208,7 +70177,7 @@
     </row>
     <row r="797" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A797" s="1">
-        <v>1386</v>
+        <v>795</v>
       </c>
       <c r="B797" t="s">
         <v>3483</v>
@@ -70282,7 +70251,7 @@
     </row>
     <row r="798" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A798" s="1">
-        <v>1387</v>
+        <v>796</v>
       </c>
       <c r="B798" t="s">
         <v>3487</v>
@@ -70356,7 +70325,7 @@
     </row>
     <row r="799" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A799" s="1">
-        <v>1388</v>
+        <v>797</v>
       </c>
       <c r="B799" t="s">
         <v>3492</v>
@@ -70430,7 +70399,7 @@
     </row>
     <row r="800" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A800" s="1">
-        <v>1389</v>
+        <v>798</v>
       </c>
       <c r="B800" t="s">
         <v>3496</v>
@@ -70504,7 +70473,7 @@
     </row>
     <row r="801" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A801" s="1">
-        <v>1390</v>
+        <v>799</v>
       </c>
       <c r="B801" t="s">
         <v>1079</v>
@@ -70578,7 +70547,7 @@
     </row>
     <row r="802" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A802" s="1">
-        <v>1391</v>
+        <v>800</v>
       </c>
       <c r="B802" t="s">
         <v>3504</v>
@@ -70652,7 +70621,7 @@
     </row>
     <row r="803" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A803" s="1">
-        <v>1392</v>
+        <v>801</v>
       </c>
       <c r="B803" t="s">
         <v>3509</v>
@@ -70726,7 +70695,7 @@
     </row>
     <row r="804" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A804" s="1">
-        <v>1393</v>
+        <v>802</v>
       </c>
       <c r="B804" t="s">
         <v>3512</v>
@@ -70800,7 +70769,7 @@
     </row>
     <row r="805" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A805" s="1">
-        <v>1394</v>
+        <v>803</v>
       </c>
       <c r="B805" t="s">
         <v>3517</v>
@@ -70874,7 +70843,7 @@
     </row>
     <row r="806" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A806" s="1">
-        <v>1395</v>
+        <v>804</v>
       </c>
       <c r="B806" t="s">
         <v>3521</v>
@@ -70948,7 +70917,7 @@
     </row>
     <row r="807" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A807" s="1">
-        <v>1396</v>
+        <v>805</v>
       </c>
       <c r="B807" t="s">
         <v>3526</v>
@@ -71022,7 +70991,7 @@
     </row>
     <row r="808" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A808" s="1">
-        <v>1397</v>
+        <v>806</v>
       </c>
       <c r="B808" t="s">
         <v>3531</v>
@@ -71096,7 +71065,7 @@
     </row>
     <row r="809" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A809" s="1">
-        <v>1398</v>
+        <v>807</v>
       </c>
       <c r="B809" t="s">
         <v>3535</v>
@@ -71170,7 +71139,7 @@
     </row>
     <row r="810" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A810" s="1">
-        <v>1399</v>
+        <v>808</v>
       </c>
       <c r="B810" t="s">
         <v>3540</v>
@@ -71244,7 +71213,7 @@
     </row>
     <row r="811" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A811" s="1">
-        <v>1400</v>
+        <v>809</v>
       </c>
       <c r="B811" t="s">
         <v>3545</v>
@@ -71318,7 +71287,7 @@
     </row>
     <row r="812" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A812" s="1">
-        <v>1401</v>
+        <v>810</v>
       </c>
       <c r="B812" t="s">
         <v>3548</v>
@@ -71392,7 +71361,7 @@
     </row>
     <row r="813" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A813" s="1">
-        <v>1402</v>
+        <v>811</v>
       </c>
       <c r="B813" t="s">
         <v>3551</v>
@@ -71466,7 +71435,7 @@
     </row>
     <row r="814" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A814" s="1">
-        <v>1403</v>
+        <v>812</v>
       </c>
       <c r="B814" t="s">
         <v>3554</v>
@@ -71540,7 +71509,7 @@
     </row>
     <row r="815" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A815" s="1">
-        <v>1404</v>
+        <v>813</v>
       </c>
       <c r="B815" t="s">
         <v>3559</v>
@@ -71614,7 +71583,7 @@
     </row>
     <row r="816" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A816" s="1">
-        <v>1405</v>
+        <v>814</v>
       </c>
       <c r="B816" t="s">
         <v>3565</v>
@@ -71688,7 +71657,7 @@
     </row>
     <row r="817" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A817" s="1">
-        <v>1406</v>
+        <v>815</v>
       </c>
       <c r="B817" t="s">
         <v>3570</v>
@@ -71762,7 +71731,7 @@
     </row>
     <row r="818" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A818" s="1">
-        <v>1407</v>
+        <v>816</v>
       </c>
       <c r="B818" t="s">
         <v>3575</v>
@@ -71836,7 +71805,7 @@
     </row>
     <row r="819" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A819" s="1">
-        <v>1408</v>
+        <v>817</v>
       </c>
       <c r="B819" t="s">
         <v>3579</v>
@@ -71910,7 +71879,7 @@
     </row>
     <row r="820" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A820" s="1">
-        <v>1409</v>
+        <v>818</v>
       </c>
       <c r="B820" t="s">
         <v>3584</v>
@@ -71984,7 +71953,7 @@
     </row>
     <row r="821" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A821" s="1">
-        <v>1410</v>
+        <v>819</v>
       </c>
       <c r="B821" t="s">
         <v>3589</v>
@@ -72058,7 +72027,7 @@
     </row>
     <row r="822" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A822" s="1">
-        <v>1411</v>
+        <v>820</v>
       </c>
       <c r="B822" t="s">
         <v>3594</v>
@@ -72132,7 +72101,7 @@
     </row>
     <row r="823" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A823" s="1">
-        <v>1412</v>
+        <v>821</v>
       </c>
       <c r="B823" t="s">
         <v>3597</v>
@@ -72206,7 +72175,7 @@
     </row>
     <row r="824" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A824" s="1">
-        <v>1413</v>
+        <v>822</v>
       </c>
       <c r="B824" t="s">
         <v>3601</v>
@@ -72280,7 +72249,7 @@
     </row>
     <row r="825" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A825" s="1">
-        <v>1414</v>
+        <v>823</v>
       </c>
       <c r="B825" t="s">
         <v>3607</v>
@@ -72354,7 +72323,7 @@
     </row>
     <row r="826" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A826" s="1">
-        <v>1415</v>
+        <v>824</v>
       </c>
       <c r="B826" t="s">
         <v>3612</v>
@@ -72428,7 +72397,7 @@
     </row>
     <row r="827" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A827" s="1">
-        <v>1416</v>
+        <v>825</v>
       </c>
       <c r="B827" t="s">
         <v>3617</v>
@@ -72502,7 +72471,7 @@
     </row>
     <row r="828" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A828" s="1">
-        <v>1417</v>
+        <v>826</v>
       </c>
       <c r="B828" t="s">
         <v>3621</v>
@@ -72576,7 +72545,7 @@
     </row>
     <row r="829" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A829" s="1">
-        <v>1418</v>
+        <v>827</v>
       </c>
       <c r="B829" t="s">
         <v>3625</v>
@@ -72650,7 +72619,7 @@
     </row>
     <row r="830" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A830" s="1">
-        <v>1419</v>
+        <v>828</v>
       </c>
       <c r="B830" t="s">
         <v>3628</v>
@@ -72724,7 +72693,7 @@
     </row>
     <row r="831" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A831" s="1">
-        <v>1420</v>
+        <v>829</v>
       </c>
       <c r="B831" t="s">
         <v>3631</v>
@@ -72798,7 +72767,7 @@
     </row>
     <row r="832" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A832" s="1">
-        <v>1423</v>
+        <v>830</v>
       </c>
       <c r="B832" t="s">
         <v>3634</v>
@@ -72869,7 +72838,7 @@
     </row>
     <row r="833" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A833" s="1">
-        <v>1429</v>
+        <v>831</v>
       </c>
       <c r="B833" t="s">
         <v>3640</v>
